--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail14 Features.xlsx
@@ -1201,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,29 +1212,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1255,115 +1253,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1380,72 +1368,66 @@
         <v>4.438871973265597e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.6831761462980486</v>
+        <v>2.09238116099207e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.549981108776052</v>
+        <v>2.867431321165321e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.09238116099207e-06</v>
+        <v>0.04646490258103793</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.867431321165321e-06</v>
+        <v>0.1626152263294561</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04646490258103793</v>
+        <v>0.02858989816787592</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1626152263294561</v>
+        <v>1.842290601649502</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02858989816787592</v>
+        <v>2.056352557699053</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.812195090935564</v>
+        <v>4.127217744846973</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.056352557699053</v>
+        <v>4.769041721762814e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.127217744846973</v>
+        <v>376357008.20801</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.769041721762814e-16</v>
+        <v>3.153385491149989e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>376357008.20801</v>
+        <v>67.55089957468239</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.153385491149989e-07</v>
+        <v>0.0001014133657552747</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>67.55089957468239</v>
+        <v>7.709272380745769</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001014133657552747</v>
+        <v>1.774026087448138</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.709272380745769</v>
+        <v>0.006027288462287608</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.774026087448138</v>
+        <v>3.45574833276311</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006027288462287608</v>
+        <v>0.9597439887924393</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.45574833276311</v>
+        <v>1.585954520608381</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9597439887924393</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.585954520608381</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4679874422860846</v>
       </c>
     </row>
@@ -1460,72 +1442,66 @@
         <v>4.136066058908086e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.5290758706344423</v>
+        <v>1.916140697242467e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.4234989137239187</v>
+        <v>2.88648023483369e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.916140697242467e-06</v>
+        <v>0.04261992111525407</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.88648023483369e-06</v>
+        <v>0.1675711839776415</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.04261992111525407</v>
+        <v>0.02988767672628169</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1675711839776415</v>
+        <v>1.839560249615607</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02988767672628169</v>
+        <v>2.097104867227958</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.811731940014148</v>
+        <v>4.374945769959347</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.097104867227958</v>
+        <v>5.630360679187145e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.374945769959347</v>
+        <v>315916150.8120387</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.630360679187145e-16</v>
+        <v>3.750838758852762e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>315916150.8120387</v>
+        <v>56.19269676262159</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.750838758852762e-07</v>
+        <v>0.0001233226210380953</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>56.19269676262159</v>
+        <v>10.30912185064971</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001233226210380953</v>
+        <v>1.850917605515038</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.30912185064971</v>
+        <v>0.01310648069631512</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.850917605515038</v>
+        <v>3.526938496330588</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01310648069631512</v>
+        <v>0.9587606901243838</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.526938496330588</v>
+        <v>1.57579530891626</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9587606901243838</v>
+        <v>29</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.57579530891626</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5822863530416991</v>
       </c>
     </row>
@@ -1540,72 +1516,66 @@
         <v>3.88137432947847e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3814047110699464</v>
+        <v>1.778246615383055e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.3635934824106437</v>
+        <v>2.902908116676388e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.778246615383055e-06</v>
+        <v>0.0395335619669921</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.902908116676388e-06</v>
+        <v>0.1739808533902912</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0395335619669921</v>
+        <v>0.03182591073063328</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1739808533902912</v>
+        <v>1.839629663378521</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03182591073063328</v>
+        <v>1.848580009669727</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.815608684094768</v>
+        <v>4.33669720649729</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.848580009669727</v>
+        <v>6.807188661452595e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.33669720649729</v>
+        <v>259666463.6494593</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.807188661452595e-16</v>
+        <v>4.564465266526842e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>259666463.6494593</v>
+        <v>45.89860794610263</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.564465266526842e-07</v>
+        <v>9.740901835462171e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45.89860794610263</v>
+        <v>8.162947068639205</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.740901835462171e-05</v>
+        <v>1.534573480584934</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.162947068639205</v>
+        <v>0.00649072377832254</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.534573480584934</v>
+        <v>3.53651531807679</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00649072377832254</v>
+        <v>0.9580913717756542</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.53651531807679</v>
+        <v>1.608256256910363</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9580913717756542</v>
+        <v>28</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.608256256910363</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6538171426933864</v>
       </c>
     </row>
@@ -1620,72 +1590,66 @@
         <v>3.662255474010531e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2348890982479725</v>
+        <v>1.667129100917742e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.3471722729040549</v>
+        <v>2.917332758190404e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.667129100917742e-06</v>
+        <v>0.03712563518500414</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.917332758190404e-06</v>
+        <v>0.1812181249534575</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03712563518500414</v>
+        <v>0.03421362258459047</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1812181249534575</v>
+        <v>1.88655540117451</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03421362258459047</v>
+        <v>1.769168275413307</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.879290522247524</v>
+        <v>4.25092283293603</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.769168275413307</v>
+        <v>8.092302668310648e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.25092283293603</v>
+        <v>228576466.7314768</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.092302668310648e-16</v>
+        <v>5.255923119063479e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>228576466.7314768</v>
+        <v>42.28001652248707</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.255923119063479e-07</v>
+        <v>0.0001335040984662663</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>42.28001652248707</v>
+        <v>9.83403947966867</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001335040984662663</v>
+        <v>1.138158450770478</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.83403947966867</v>
+        <v>0.01291095874294393</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.138158450770478</v>
+        <v>3.116362501310839</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01291095874294393</v>
+        <v>0.9591793875756125</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.116362501310839</v>
+        <v>1.415922427512842</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9591793875756125</v>
+        <v>27</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.415922427512842</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4829371604517462</v>
       </c>
     </row>
@@ -1700,72 +1664,66 @@
         <v>3.46983023319637e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.08555712029803621</v>
+        <v>1.57706981052054e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.3592418364452454</v>
+        <v>2.930238663017574e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.57706981052054e-06</v>
+        <v>0.0354225022931909</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.930238663017574e-06</v>
+        <v>0.1890893365801198</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0354225022931909</v>
+        <v>0.03700607885493282</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1890893365801198</v>
+        <v>1.867980615554959</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03700607885493282</v>
+        <v>1.804391019408096</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.858784198890354</v>
+        <v>4.001156446115385</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.804391019408096</v>
+        <v>6.699251269075542e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.001156446115385</v>
+        <v>276310679.0745347</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.699251269075542e-16</v>
+        <v>4.313436615413349e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>276310679.0745347</v>
+        <v>51.14716983805575</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.313436615413349e-07</v>
+        <v>0.0001694554319807247</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>51.14716983805575</v>
+        <v>11.39222518616519</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001694554319807247</v>
+        <v>1.076235821776045</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.39222518616519</v>
+        <v>0.02199239953824878</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.076235821776045</v>
+        <v>2.714460738391207</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02199239953824878</v>
+        <v>0.9584974573914323</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.714460738391207</v>
+        <v>1.414821882161781</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9584974573914323</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.414821882161781</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.420635537214684</v>
       </c>
     </row>
@@ -1780,72 +1738,66 @@
         <v>3.296958293977603e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.07195223062946682</v>
+        <v>1.504882554059554e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.3855314322567511</v>
+        <v>2.942002099954661e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.504882554059554e-06</v>
+        <v>0.03418046844564163</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.942002099954661e-06</v>
+        <v>0.1975836846954909</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03418046844564163</v>
+        <v>0.04020524421406681</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1975836846954909</v>
+        <v>1.811050840776603</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04020524421406681</v>
+        <v>1.804109517424782</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.777887116397823</v>
+        <v>5.321910066240826</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.804109517424782</v>
+        <v>1.114518212068343e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.321910066240826</v>
+        <v>167809369.8994266</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.114518212068343e-15</v>
+        <v>6.988845395628115e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>167809369.8994266</v>
+        <v>31.38481571728902</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.988845395628115e-07</v>
+        <v>0.0001821724746813653</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>31.38481571728902</v>
+        <v>10.08716857298597</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001821724746813653</v>
+        <v>1.316720081285533</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.08716857298597</v>
+        <v>0.01853622597330839</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.316720081285533</v>
+        <v>2.890871116860646</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01853622597330839</v>
+        <v>0.9584023919959523</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.890871116860646</v>
+        <v>1.633215476702445</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9584023919959523</v>
+        <v>30</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.633215476702445</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3760755645095965</v>
       </c>
     </row>
@@ -1860,72 +1812,66 @@
         <v>3.138613247329994e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2452443968676575</v>
+        <v>1.445404652261241e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.4097854522994346</v>
+        <v>2.952784127651646e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.445404652261241e-06</v>
+        <v>0.03280767590673733</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.952784127651646e-06</v>
+        <v>0.2066202841045389</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03280767590673733</v>
+        <v>0.0437663837744288</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2066202841045389</v>
+        <v>1.736979627040387</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0437663837744288</v>
+        <v>1.761913273668559</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.688497377525002</v>
+        <v>4.322673000497637</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.761913273668559</v>
+        <v>1.903148384925313e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.322673000497637</v>
+        <v>108874599.0084367</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.903148384925313e-15</v>
+        <v>9.70019584248995e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>108874599.0084367</v>
+        <v>22.55930872966933</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.70019584248995e-07</v>
+        <v>0.0002226345908273129</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>22.55930872966933</v>
+        <v>9.257592440823416</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0002226345908273129</v>
+        <v>1.814558626978265</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.257592440823416</v>
+        <v>0.01908045630065593</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.814558626978265</v>
+        <v>2.853554789593772</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01908045630065593</v>
+        <v>0.9554342978416623</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.853554789593772</v>
+        <v>1.528205250500144</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9554342978416623</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.528205250500144</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2291778427476448</v>
       </c>
     </row>
@@ -1940,72 +1886,66 @@
         <v>2.992736618022604e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4395924594933847</v>
+        <v>1.391528149802918e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.4199672658718554</v>
+        <v>2.96259493423386e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.391528149802918e-06</v>
+        <v>0.03113957082471439</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.96259493423386e-06</v>
+        <v>0.2159486509005766</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03113957082471439</v>
+        <v>0.04760151832934192</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2159486509005766</v>
+        <v>1.700305359122217</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04760151832934192</v>
+        <v>1.832468590779267</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.648170813282249</v>
+        <v>4.127807536203255</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.832468590779267</v>
+        <v>2.08707731897724e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.127807536203255</v>
+        <v>102231235.7510595</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.08707731897724e-15</v>
+        <v>1.010998530349876e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>102231235.7510595</v>
+        <v>21.81251582844628</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.010998530349876e-06</v>
+        <v>0.0001610218895626781</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>21.81251582844628</v>
+        <v>9.530091844847172</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001610218895626781</v>
+        <v>1.335221208753302</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.530091844847172</v>
+        <v>0.01462443481006911</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.335221208753302</v>
+        <v>2.947808240844195</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01462443481006911</v>
+        <v>0.9542284931408697</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.947808240844195</v>
+        <v>1.660580805959214</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9542284931408697</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.660580805959214</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2046949270140859</v>
       </c>
     </row>
@@ -2020,72 +1960,66 @@
         <v>2.859947639324615e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6536486262002715</v>
+        <v>1.336878204677002e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.4130193829858406</v>
+        <v>2.971385880643426e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.336878204677002e-06</v>
+        <v>0.02882921578425952</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.971385880643426e-06</v>
+        <v>0.2251820496755176</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02882921578425952</v>
+        <v>0.05153548070152228</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2251820496755176</v>
+        <v>1.687616765544473</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05153548070152228</v>
+        <v>1.785388831558765</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.638937729753441</v>
+        <v>4.064111112965207</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.785388831558765</v>
+        <v>2.153011113320013e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.064111112965207</v>
+        <v>98548119.56216635</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.153011113320013e-15</v>
+        <v>1.033076335059635e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>98548119.56216635</v>
+        <v>20.90946664405579</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.033076335059635e-06</v>
+        <v>0.0001408412351600344</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>20.90946664405579</v>
+        <v>10.07248426129325</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001408412351600344</v>
+        <v>1.156989811841711</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.07248426129325</v>
+        <v>0.01428903894916918</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.156989811841711</v>
+        <v>2.954941936662939</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01428903894916918</v>
+        <v>0.9544792420666839</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.954941936662939</v>
+        <v>1.664266954834999</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9544792420666839</v>
+        <v>18</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.664266954834999</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.21868325548186</v>
       </c>
     </row>
@@ -2100,72 +2034,66 @@
         <v>2.743428709449217e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8755012935534839</v>
+        <v>1.2750135684586e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.3977939884223152</v>
+        <v>2.979028522363873e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.2750135684586e-06</v>
+        <v>0.02556208839432961</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.979028522363873e-06</v>
+        <v>0.2335372365899827</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02556208839432961</v>
+        <v>0.05518904580292008</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2335372365899827</v>
+        <v>1.68294250224849</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05518904580292008</v>
+        <v>1.714819806093781</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.631253012708755</v>
+        <v>4.054427547853613</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.714819806093781</v>
+        <v>2.163307867001771e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.054427547853613</v>
+        <v>94942367.40670972</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.163307867001771e-15</v>
+        <v>1.05999958586163e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>94942367.40670972</v>
+        <v>19.50017204708476</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.05999958586163e-06</v>
+        <v>0.000127400299069361</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>19.50017204708476</v>
+        <v>9.865967454226503</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000127400299069361</v>
+        <v>1.182427798246557</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.865967454226503</v>
+        <v>0.01240080288972917</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.182427798246557</v>
+        <v>3.152013140765394</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01240080288972917</v>
+        <v>0.956016772983295</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.152013140765394</v>
+        <v>1.629129693519418</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.956016772983295</v>
+        <v>18</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.629129693519418</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2486535965533412</v>
       </c>
     </row>
@@ -2180,72 +2108,66 @@
         <v>2.648411313021849e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.079597161767218</v>
+        <v>1.199178925362032e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.3944383852533146</v>
+        <v>2.985330196689322e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.199178925362032e-06</v>
+        <v>0.0209641654519803</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.985330196689322e-06</v>
+        <v>0.239683870541671</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.0209641654519803</v>
+        <v>0.05788101621122494</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.239683870541671</v>
+        <v>1.680507691343567</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05788101621122494</v>
+        <v>1.679595502284189</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.629565523781428</v>
+        <v>4.051682907540906</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.679595502284189</v>
+        <v>2.166239741568582e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.051682907540906</v>
+        <v>95854365.85532898</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.166239741568582e-15</v>
+        <v>1.053225812162958e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>95854365.85532898</v>
+        <v>19.90353953612566</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.053225812162958e-06</v>
+        <v>0.0001148566955334786</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>19.90353953612566</v>
+        <v>8.775414746642804</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001148566955334786</v>
+        <v>1.290825178789555</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.775414746642804</v>
+        <v>0.008844873380596386</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.290825178789555</v>
+        <v>3.584540481537561</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.008844873380596386</v>
+        <v>0.9559972690450084</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.584540481537561</v>
+        <v>1.643905641060849</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9559972690450084</v>
+        <v>18</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.643905641060849</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2762114775822272</v>
       </c>
     </row>
@@ -2260,72 +2182,66 @@
         <v>2.581169261943986e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.230991110970165</v>
+        <v>1.101170425042149e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4188254003889713</v>
+        <v>2.990013961974496e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.101170425042149e-06</v>
+        <v>0.01456404125897522</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.990013961974496e-06</v>
+        <v>0.241540821297367</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.01456404125897522</v>
+        <v>0.05854168601145095</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.241540821297367</v>
+        <v>1.678887502683118</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05854168601145095</v>
+        <v>1.690020802127077</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.627924659923385</v>
+        <v>4.025417935324739</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.690020802127077</v>
+        <v>2.194600446103913e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.025417935324739</v>
+        <v>94841298.72615613</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.194600446103913e-15</v>
+        <v>1.06465462881257e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>94841298.72615613</v>
+        <v>19.74014998109039</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.06465462881257e-06</v>
+        <v>0.000135581126502193</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>19.74014998109039</v>
+        <v>8.605808680848966</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000135581126502193</v>
+        <v>1.660893755259552</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.605808680848966</v>
+        <v>0.01004113050759374</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.660893755259552</v>
+        <v>3.704890332030113</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01004113050759374</v>
+        <v>0.9560404141679305</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.704890332030113</v>
+        <v>1.6350766954019</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9560404141679305</v>
+        <v>18</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.6350766954019</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2761372944775276</v>
       </c>
     </row>
@@ -2340,72 +2256,66 @@
         <v>2.546876171531465e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.303373347405891</v>
+        <v>9.705709602717394e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.4547822518640272</v>
+        <v>2.992679009569239e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.705709602717394e-07</v>
+        <v>0.005862848646931676</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.992679009569239e-06</v>
+        <v>0.2360319445807738</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.005862848646931676</v>
+        <v>0.05572234115078965</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2360319445807738</v>
+        <v>1.672800884446583</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05572234115078965</v>
+        <v>1.73422697206526</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.623421977066296</v>
+        <v>3.891831786713793</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.73422697206526</v>
+        <v>2.347844317093232e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.891831786713793</v>
+        <v>90654431.44648361</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.347844317093232e-15</v>
+        <v>1.116807134354936e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>90654431.44648361</v>
+        <v>19.29511507189549</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.116807134354936e-06</v>
+        <v>0.0001521359931747495</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>19.29511507189549</v>
+        <v>9.747101666531803</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001521359931747495</v>
+        <v>1.424882518427589</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.747101666531803</v>
+        <v>0.01445383078277387</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.424882518427589</v>
+        <v>3.466028192507263</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01445383078277387</v>
+        <v>0.9567108921304057</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.466028192507263</v>
+        <v>1.63506529644502</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9567108921304057</v>
+        <v>18</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.63506529644502</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2525060789344452</v>
       </c>
     </row>
@@ -2420,72 +2330,66 @@
         <v>2.54527415342824e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.307798654820693</v>
+        <v>8.833727206709539e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.4567930961334059</v>
+        <v>2.992743774778178e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>8.833727206709539e-07</v>
+        <v>-0.005798904711493431</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.992743774778178e-06</v>
+        <v>0.2184678131178099</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.005798904711493431</v>
+        <v>0.0477215268364324</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2184678131178099</v>
+        <v>1.665085769212181</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0477215268364324</v>
+        <v>1.701596378807626</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.610935228948144</v>
+        <v>3.874128970323986</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.701596378807626</v>
+        <v>2.369350270663188e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.874128970323986</v>
+        <v>93208964.78379837</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.369350270663188e-15</v>
+        <v>1.104123280383232e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>93208964.78379837</v>
+        <v>20.58470455435193</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.104123280383232e-06</v>
+        <v>0.0001426962136319765</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>20.58470455435193</v>
+        <v>10.95043025695567</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001426962136319765</v>
+        <v>1.111418899900678</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.95043025695567</v>
+        <v>0.01711097735466648</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.111418899900678</v>
+        <v>3.134451769482388</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01711097735466648</v>
+        <v>0.95566606053286</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.134451769482388</v>
+        <v>1.691440740756197</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.95566606053286</v>
+        <v>23</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.691440740756197</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2362380666255182</v>
       </c>
     </row>
@@ -2500,72 +2404,66 @@
         <v>2.563311582534187e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.30350971204228</v>
+        <v>8.853605990384925e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.4403579312355799</v>
+        <v>2.989488925438093e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.853605990384925e-07</v>
+        <v>-0.01978502055340528</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.989488925438093e-06</v>
+        <v>0.1873451521941593</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.01978502055340528</v>
+        <v>0.03544055220087971</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1873451521941593</v>
+        <v>1.663281402718039</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03544055220087971</v>
+        <v>1.69584494691369</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.60732764727712</v>
+        <v>3.88100694576091</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.69584494691369</v>
+        <v>2.360959720017605e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.88100694576091</v>
+        <v>93991434.28055298</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.360959720017605e-15</v>
+        <v>1.095595790113442e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>93991434.28055298</v>
+        <v>20.8576382754084</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.095595790113442e-06</v>
+        <v>0.0001346262497233745</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>20.8576382754084</v>
+        <v>10.42716378292926</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001346262497233745</v>
+        <v>1.131985793425812</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.42716378292926</v>
+        <v>0.01463733923796015</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.131985793425812</v>
+        <v>3.13504147876902</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01463733923796015</v>
+        <v>0.955448409645295</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.13504147876902</v>
+        <v>1.651441224191939</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.955448409645295</v>
+        <v>28</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.651441224191939</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2370287265325584</v>
       </c>
     </row>
@@ -2580,72 +2478,66 @@
         <v>2.572309856508306e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.349046573060876</v>
+        <v>8.864470554960761e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.5426459062050304</v>
+        <v>2.982550182889621e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.864470554960761e-07</v>
+        <v>-0.03392542885963296</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.982550182889621e-06</v>
+        <v>0.1486095198751514</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03392542885963296</v>
+        <v>0.02319359341821425</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1486095198751514</v>
+        <v>1.663483218637543</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02319359341821425</v>
+        <v>1.664859846394377</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.603002180921748</v>
+        <v>3.878145965245757</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.664859846394377</v>
+        <v>2.364444452843933e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.878145965245757</v>
+        <v>93691996.43321715</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.364444452843933e-15</v>
+        <v>1.098862581638563e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>93691996.43321715</v>
+        <v>20.75554311409467</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.098862581638563e-06</v>
+        <v>0.0001225198484223781</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>20.75554311409467</v>
+        <v>9.144365901062638</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001225198484223781</v>
+        <v>1.274750848235857</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.144365901062638</v>
+        <v>0.010245039610954</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.274750848235857</v>
+        <v>3.48747115099693</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.010245039610954</v>
+        <v>0.9565228492780857</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.48747115099693</v>
+        <v>1.638991794662608</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9565228492780857</v>
+        <v>28</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.638991794662608</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2611561509306557</v>
       </c>
     </row>
@@ -2660,72 +2552,66 @@
         <v>2.541974098271877e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.447643427583875</v>
+        <v>8.864470554960761e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.8632164299268581</v>
+        <v>2.972214016617969e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8.864470554960761e-07</v>
+        <v>-0.04625962072858617</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.972214016617969e-06</v>
+        <v>0.113400253515415</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04625962072858617</v>
+        <v>0.0149762066760288</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.113400253515415</v>
+        <v>1.666527984407434</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.0149762066760288</v>
+        <v>1.644706897830642</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.607647809015726</v>
+        <v>3.903068596926803</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.644706897830642</v>
+        <v>2.334345039038969e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.903068596926803</v>
+        <v>94931076.71612273</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.334345039038969e-15</v>
+        <v>1.085107867055101e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>94931076.71612273</v>
+        <v>21.03690582854316</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.085107867055101e-06</v>
+        <v>0.000116967030451258</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>21.03690582854316</v>
+        <v>8.320378140263429</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000116967030451258</v>
+        <v>1.549995620541123</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.320378140263429</v>
+        <v>0.008097474571697573</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.549995620541123</v>
+        <v>3.801095542168419</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008097474571697573</v>
+        <v>0.9559846539404919</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.801095542168419</v>
+        <v>1.645574816631806</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9559846539404919</v>
+        <v>28</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.645574816631806</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.3013023871649738</v>
       </c>
     </row>
@@ -2740,72 +2626,66 @@
         <v>2.45837511001303e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.564575243436275</v>
+        <v>8.864470554960761e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.34039614417896</v>
+        <v>2.959406384546858e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8.864470554960761e-07</v>
+        <v>-0.05540226201852116</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.959406384546858e-06</v>
+        <v>0.09506036307047824</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05540226201852116</v>
+        <v>0.01209906236531462</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.09506036307047824</v>
+        <v>1.665570831902681</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01209906236531462</v>
+        <v>1.621336024757575</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.605707226837958</v>
+        <v>3.992345653167021</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.621336024757575</v>
+        <v>2.358596873579191e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.992345653167021</v>
+        <v>94187830.23006885</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.358596873579191e-15</v>
+        <v>1.093494622917978e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>94187830.23006885</v>
+        <v>20.92393215586409</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.093494622917978e-06</v>
+        <v>0.0001200604854974515</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>20.92393215586409</v>
+        <v>8.843680828575973</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001200604854974515</v>
+        <v>1.600419622295782</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.843680828575973</v>
+        <v>0.009390013484253496</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.600419622295782</v>
+        <v>3.908853626179605</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009390013484253496</v>
+        <v>0.9558412366243914</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.908853626179605</v>
+        <v>1.695217871360224</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9558412366243914</v>
+        <v>28</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.695217871360224</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3356926169572209</v>
       </c>
     </row>
@@ -2820,72 +2700,66 @@
         <v>2.327750476720636e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.670895822032011</v>
+        <v>8.864470554960761e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.854674001771561</v>
+        <v>2.945358467883809e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>8.864470554960761e-07</v>
+        <v>-0.06137882772868385</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.945358467883809e-06</v>
+        <v>0.09406394932353569</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06137882772868385</v>
+        <v>0.01261466156223619</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.09406394932353569</v>
+        <v>1.653566591983614</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01261466156223619</v>
+        <v>1.607955520824233</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.591118153001334</v>
+        <v>4.439047704749469</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.607955520824233</v>
+        <v>2.65730837935961e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.439047704749469</v>
+        <v>81242116.22734362</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.65730837935961e-15</v>
+        <v>1.248850505913281e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>81242116.22734362</v>
+        <v>17.5389832008178</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.248850505913281e-06</v>
+        <v>0.0001271578042637503</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>17.5389832008178</v>
+        <v>11.52225754941508</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001271578042637503</v>
+        <v>1.117339385314665</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>11.52225754941508</v>
+        <v>0.01688177769324124</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.117339385314665</v>
+        <v>3.556059916535663</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01688177769324124</v>
+        <v>0.9549223109764409</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.556059916535663</v>
+        <v>1.652318703936305</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9549223109764409</v>
+        <v>28</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.652318703936305</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3404645125049814</v>
       </c>
     </row>
@@ -2900,72 +2774,66 @@
         <v>2.163491975156814e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.754761472753403</v>
+        <v>8.839193575193823e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.331450222207176</v>
+        <v>2.931141351942233e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8.839193575193823e-07</v>
+        <v>-0.06472276959451091</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.931141351942233e-06</v>
+        <v>0.1026757569475841</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06472276959451091</v>
+        <v>0.01473064637895337</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1026757569475841</v>
+        <v>1.660306104014962</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01473064637895337</v>
+        <v>1.747033185012729</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.597969933669667</v>
+        <v>4.248753539538393</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.747033185012729</v>
+        <v>3.068641171001333e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.248753539538393</v>
+        <v>69309758.24913923</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.068641171001333e-15</v>
+        <v>1.459793188818982e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>69309758.24913923</v>
+        <v>14.74126914624681</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.459793188818982e-06</v>
+        <v>0.0001795175663280875</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>14.74126914624681</v>
+        <v>11.79618535315533</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001795175663280875</v>
+        <v>1.134444863937844</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.79618535315533</v>
+        <v>0.02497986735939447</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.134444863937844</v>
+        <v>2.882269786682959</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02497986735939447</v>
+        <v>0.9542053404043181</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.882269786682959</v>
+        <v>1.661551728085876</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9542053404043181</v>
+        <v>25</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.661551728085876</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2381154810865712</v>
       </c>
     </row>
@@ -2980,72 +2848,66 @@
         <v>1.979226349325044e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.811647145739459</v>
+        <v>8.580213300329354e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.736316913986007</v>
+        <v>2.917564872361032e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.580213300329354e-07</v>
+        <v>-0.06597569738187943</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.917564872361032e-06</v>
+        <v>0.1155568863320887</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06597569738187943</v>
+        <v>0.01770245461261543</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1155568863320887</v>
+        <v>1.688469724293168</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01770245461261543</v>
+        <v>1.530312128319683</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.635379563091284</v>
+        <v>4.428411676586837</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.530312128319683</v>
+        <v>2.824705736259651e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.428411676586837</v>
+        <v>74979518.07849094</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.824705736259651e-15</v>
+        <v>1.369561283397206e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>74979518.07849094</v>
+        <v>15.88029264127388</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.369561283397206e-06</v>
+        <v>0.0001953884927023129</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>15.88029264127388</v>
+        <v>11.3908372985394</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001953884927023129</v>
+        <v>1.189785064576923</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.3908372985394</v>
+        <v>0.02535188638490638</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.189785064576923</v>
+        <v>2.648535952869547</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02535188638490638</v>
+        <v>0.9534748885556399</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.648535952869547</v>
+        <v>1.613827982121486</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9534748885556399</v>
+        <v>25</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.613827982121486</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2045925144699551</v>
       </c>
     </row>
@@ -3060,72 +2922,66 @@
         <v>1.78626682560017e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.83413173338829</v>
+        <v>8.117080789556099e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>3.036674752590674</v>
+        <v>2.905180113079771e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.117080789556099e-07</v>
+        <v>-0.06517056914637519</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.905180113079771e-06</v>
+        <v>0.130951928705936</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06517056914637519</v>
+        <v>0.02138662756595861</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.130951928705936</v>
+        <v>1.740748028952666</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02138662756595861</v>
+        <v>1.798291290527013</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.701242862720638</v>
+        <v>4.038592270098966</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.798291290527013</v>
+        <v>1.958584935025512e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.038592270098966</v>
+        <v>103166517.2042933</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.958584935025512e-15</v>
+        <v>1.089239824568004e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>103166517.2042933</v>
+        <v>20.84586632936505</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.089239824568004e-06</v>
+        <v>0.0001591712453017564</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>20.84586632936505</v>
+        <v>11.04529780412488</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001591712453017564</v>
+        <v>1.147694445781362</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.04529780412488</v>
+        <v>0.01941866965719135</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.147694445781362</v>
+        <v>2.846994727800842</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01941866965719135</v>
+        <v>0.95358883924616</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.846994727800842</v>
+        <v>1.546432051539254</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.95358883924616</v>
+        <v>24</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.546432051539254</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2410900594732993</v>
       </c>
     </row>
@@ -3140,72 +2996,66 @@
         <v>1.595336933166047e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.809649855101136</v>
+        <v>7.52227563048086e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>3.192731513138307</v>
+        <v>2.89435676392429e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7.52227563048086e-07</v>
+        <v>-0.06268671699301991</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.89435676392429e-06</v>
+        <v>0.1468813661325716</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.06268671699301991</v>
+        <v>0.02549106552512899</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1468813661325716</v>
+        <v>1.725496581149792</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02549106552512899</v>
+        <v>1.621680349278565</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.671400691584359</v>
+        <v>5.00862129581251</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.621680349278565</v>
+        <v>2.146310362861659e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.00862129581251</v>
+        <v>93410403.04291536</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.146310362861659e-15</v>
+        <v>1.223468356279585e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>93410403.04291536</v>
+        <v>18.7276383613928</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.223468356279585e-06</v>
+        <v>0.000145186839894228</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>18.7276383613928</v>
+        <v>8.578054066212532</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.000145186839894228</v>
+        <v>1.548276702461341</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.578054066212532</v>
+        <v>0.01068328491871286</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.548276702461341</v>
+        <v>3.169109267421303</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01068328491871286</v>
+        <v>0.9504574727709192</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.169109267421303</v>
+        <v>1.699739295269888</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9504574727709192</v>
+        <v>24</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.699739295269888</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.241070144907246</v>
       </c>
     </row>
@@ -3220,72 +3070,66 @@
         <v>1.415088632041491e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.718233636993364</v>
+        <v>6.882600864034275e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>3.129129833190259</v>
+        <v>2.885148367838834e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.882600864034275e-07</v>
+        <v>-0.05964668456705269</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.885148367838834e-06</v>
+        <v>0.161837938907016</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05964668456705269</v>
+        <v>0.02973396274654591</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.161837938907016</v>
+        <v>1.736112960808409</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02973396274654591</v>
+        <v>1.723283661943413</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.671392857849373</v>
+        <v>4.222528897365338</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.723283661943413</v>
+        <v>3.019838051136045e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.222528897365338</v>
+        <v>68184519.17636618</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.019838051136045e-15</v>
+        <v>1.693092301663148e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>68184519.17636618</v>
+        <v>14.03961561793888</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.693092301663148e-06</v>
+        <v>0.0001921259142164016</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>14.03961561793888</v>
+        <v>8.86149455836356</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001921259142164016</v>
+        <v>1.798718203218297</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.86149455836356</v>
+        <v>0.01508689602567973</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.798718203218297</v>
+        <v>3.011525603034524</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01508689602567973</v>
+        <v>0.950323236551206</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.011525603034524</v>
+        <v>1.69175109549694</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.950323236551206</v>
+        <v>24</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.69175109549694</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1881895169963587</v>
       </c>
     </row>
@@ -3300,72 +3144,66 @@
         <v>1.251539560058159e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.537643482482557</v>
+        <v>6.212177272084723e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.740293742111032</v>
+        <v>2.877437781645439e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.212177272084723e-07</v>
+        <v>-0.05596753287359287</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.877437781645439e-06</v>
+        <v>0.1746955047190041</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05596753287359287</v>
+        <v>0.03363094683817478</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1746955047190041</v>
+        <v>1.736858122728414</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03363094683817478</v>
+        <v>1.756385493879329</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.675373749731263</v>
+        <v>3.630608636109331</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.756385493879329</v>
+        <v>4.084792886436562e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.630608636109331</v>
+        <v>50604449.34636435</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.084792886436562e-15</v>
+        <v>2.283010642382431e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>50604449.34636435</v>
+        <v>10.46037967100996</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.283010642382431e-06</v>
+        <v>0.000189590325275295</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>10.46037967100996</v>
+        <v>10.32896316484583</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000189590325275295</v>
+        <v>1.360486053546224</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.32896316484583</v>
+        <v>0.02022691404751763</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.360486053546224</v>
+        <v>2.826501017748067</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.02022691404751763</v>
+        <v>0.9497412886434334</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.826501017748067</v>
+        <v>1.690648169310093</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9497412886434334</v>
+        <v>15</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.690648169310093</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1666595929664869</v>
       </c>
     </row>
@@ -3380,72 +3218,66 @@
         <v>1.110343598516625e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.265736104608547</v>
+        <v>5.526592557510818e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.009765095438402</v>
+        <v>2.871092995963686e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.526592557510818e-07</v>
+        <v>-0.05153309952202845</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.871092995963686e-06</v>
+        <v>0.1839848074386597</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05153309952202845</v>
+        <v>0.03648208633043708</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1839848074386597</v>
+        <v>1.732957301126522</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.03648208633043708</v>
+        <v>1.690807133809618</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.673354263525558</v>
+        <v>3.283789421632324</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.690807133809618</v>
+        <v>4.993192561931616e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.283789421632324</v>
+        <v>41112408.24414328</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.993192561931616e-15</v>
+        <v>2.803082677322077e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>41112408.24414328</v>
+        <v>8.439644421359244</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.803082677322077e-06</v>
+        <v>0.0001804897193662326</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>8.439644421359244</v>
+        <v>11.66542338263716</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001804897193662326</v>
+        <v>1.1138810553029</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.66542338263716</v>
+        <v>0.02456142052639997</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.1138810553029</v>
+        <v>2.667266886262762</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02456142052639997</v>
+        <v>0.9485989425528606</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.667266886262762</v>
+        <v>1.691706723373088</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9485989425528606</v>
+        <v>15</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.691706723373088</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1636013142120278</v>
       </c>
     </row>
@@ -3460,72 +3292,66 @@
         <v>9.943712249567109e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.9270865276859697</v>
+        <v>4.865524862248169e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.040772066015793</v>
+        <v>2.865940815328394e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.865524862248169e-07</v>
+        <v>-0.04640100371785577</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.865940815328394e-06</v>
+        <v>0.1897324303430516</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04640100371785577</v>
+        <v>0.03812446807512559</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1897324303430516</v>
+        <v>1.724187342204846</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03812446807512559</v>
+        <v>1.658515451113946</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.655858796739533</v>
+        <v>3.210157154933464</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.658515451113946</v>
+        <v>5.22488006458913e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.210157154933464</v>
+        <v>39394515.41777608</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.22488006458913e-15</v>
+        <v>2.918396399307784e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>39394515.41777608</v>
+        <v>8.10863685902857</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.918396399307784e-06</v>
+        <v>0.0001798826106413665</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>8.10863685902857</v>
+        <v>12.14359442351928</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001798826106413665</v>
+        <v>1.052841743810039</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>12.14359442351928</v>
+        <v>0.02652672835101593</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.052841743810039</v>
+        <v>2.494404049251082</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02652672835101593</v>
+        <v>0.9476396164391596</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.494404049251082</v>
+        <v>1.686813718418844</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9476396164391596</v>
+        <v>15</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.686813718418844</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1658316031748108</v>
       </c>
     </row>
@@ -3540,72 +3366,66 @@
         <v>9.041243227245427e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.5710503600034701</v>
+        <v>4.244204850195832e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.03419071437440513</v>
+        <v>2.861839948931951e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.244204850195832e-07</v>
+        <v>-0.03984256984588939</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.861839948931951e-06</v>
+        <v>0.1915373074038566</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.03984256984588939</v>
+        <v>0.03824581900436917</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1915373074038566</v>
+        <v>1.713372743053797</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03824581900436917</v>
+        <v>1.641788694618161</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.632466403168572</v>
+        <v>3.243722268475048</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.641788694618161</v>
+        <v>5.117308380163039e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.243722268475048</v>
+        <v>39433335.62311464</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.117308380163039e-15</v>
+        <v>2.913063335855003e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>39433335.62311464</v>
+        <v>7.957352910394862</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.913063335855003e-06</v>
+        <v>0.0001842599356706251</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>7.957352910394862</v>
+        <v>10.90868134897966</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001842599356706251</v>
+        <v>1.17651150988992</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.90868134897966</v>
+        <v>0.02192680866466679</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.17651150988992</v>
+        <v>2.677258858973173</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02192680866466679</v>
+        <v>0.9465334521375496</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.677258858973173</v>
+        <v>1.741431371272047</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9465334521375496</v>
+        <v>18</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.741431371272047</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1540470602469549</v>
       </c>
     </row>
@@ -3620,72 +3440,66 @@
         <v>8.389706659249879e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.259958151593206</v>
+        <v>3.675913165768704e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.7858108695834911</v>
+        <v>2.85873414249718e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.675913165768704e-07</v>
+        <v>-0.03130626508432213</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.85873414249718e-06</v>
+        <v>0.1892538433535403</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.03130626508432213</v>
+        <v>0.03677047372510416</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1892538433535403</v>
+        <v>1.704210098890124</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03677047372510416</v>
+        <v>1.736160080012906</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.62191134957564</v>
+        <v>3.236751186529468</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.736160080012906</v>
+        <v>5.139374698617284e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.236751186529468</v>
+        <v>37677350.9892003</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.139374698617284e-15</v>
+        <v>3.002788192502337e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>37677350.9892003</v>
+        <v>7.295767809602149</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.002788192502337e-06</v>
+        <v>0.0002190164050077698</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>7.295767809602149</v>
+        <v>9.820510335245386</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002190164050077698</v>
+        <v>1.487941909882204</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.820510335245386</v>
+        <v>0.02112247282928352</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.487941909882204</v>
+        <v>2.651945104127453</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02112247282928352</v>
+        <v>0.9477180349286263</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.651945104127453</v>
+        <v>1.752373305179251</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9477180349286263</v>
+        <v>16</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.752373305179251</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1381419352264681</v>
       </c>
     </row>
@@ -3700,72 +3514,66 @@
         <v>7.963381101762658e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.04094039834072839</v>
+        <v>3.172475906133117e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.295465509744054</v>
+        <v>2.856549235626933e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.172475906133117e-07</v>
+        <v>-0.02238896477250228</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.856549235626933e-06</v>
+        <v>0.1834919977930065</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02238896477250228</v>
+        <v>0.03414800174937716</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1834919977930065</v>
+        <v>1.687986422678282</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03414800174937716</v>
+        <v>1.728112139229764</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.601681552188194</v>
+        <v>3.177919359668612</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.728112139229764</v>
+        <v>5.331423334760596e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.177919359668612</v>
+        <v>36429634.72768845</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.331423334760596e-15</v>
+        <v>3.087049253890069e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>36429634.72768845</v>
+        <v>7.075429400062093</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>3.087049253890069e-06</v>
+        <v>0.0002063799722856118</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>7.075429400062093</v>
+        <v>10.18937353959556</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002063799722856118</v>
+        <v>1.36572609911117</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.18937353959556</v>
+        <v>0.02142705661384752</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.36572609911117</v>
+        <v>2.664311428427153</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02142705661384752</v>
+        <v>0.9467518441021491</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.664311428427153</v>
+        <v>1.75062468957718</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9467518441021491</v>
+        <v>11</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.75062468957718</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.144500734939099</v>
       </c>
     </row>
@@ -3780,72 +3588,66 @@
         <v>7.710136701174033e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.08014296103545038</v>
+        <v>2.738945939984534e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.527458592587711</v>
+        <v>2.855095621953123e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.738945939984534e-07</v>
+        <v>-0.01520972647991894</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.855095621953123e-06</v>
+        <v>0.1762813887767106</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.01520972647991894</v>
+        <v>0.03128811596058095</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1762813887767106</v>
+        <v>1.677463603838749</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03128811596058095</v>
+        <v>1.66545876699769</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.591129855856315</v>
+        <v>3.085948132667489</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.66545876699769</v>
+        <v>5.653946167999003e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.085948132667489</v>
+        <v>34683884.57804131</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.653946167999003e-15</v>
+        <v>3.24224565137956e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>34683884.57804131</v>
+        <v>6.801538078255231</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.24224565137956e-06</v>
+        <v>0.0001757464803743427</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>6.801538078255231</v>
+        <v>11.17052689967979</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001757464803743427</v>
+        <v>1.125277422063587</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>11.17052689967979</v>
+        <v>0.02192976378504259</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.125277422063587</v>
+        <v>2.650436298197345</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.02192976378504259</v>
+        <v>0.9460291085235409</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.650436298197345</v>
+        <v>1.740259218054292</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9460291085235409</v>
+        <v>11</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.740259218054292</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1618508017700795</v>
       </c>
     </row>
@@ -3860,72 +3662,66 @@
         <v>7.568051300359036e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.1325794558608082</v>
+        <v>2.381941279327053e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.600468789924518</v>
+        <v>2.854134087854172e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.381941279327053e-07</v>
+        <v>-0.0104241180646898</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.854134087854172e-06</v>
+        <v>0.1706653108008496</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.0104241180646898</v>
+        <v>0.02922163660525209</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1706653108008496</v>
+        <v>1.667140661726404</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.02922163660525209</v>
+        <v>1.651856660371867</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.575609770344007</v>
+        <v>3.10354197546489</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.651856660371867</v>
+        <v>5.590023925495578e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.10354197546489</v>
+        <v>34917188.08810499</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>5.590023925495578e-15</v>
+        <v>3.209865922978193e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>34917188.08810499</v>
+        <v>6.815413204252804</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>3.209865922978193e-06</v>
+        <v>0.0001672231306405822</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>6.815413204252804</v>
+        <v>11.11633328179574</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001672231306405822</v>
+        <v>1.09915468376103</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>11.11633328179574</v>
+        <v>0.02066424145320431</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.09915468376103</v>
+        <v>2.596098711081592</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.02066424145320431</v>
+        <v>0.9475426233594323</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.596098711081592</v>
+        <v>1.761927718007858</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9475426233594323</v>
+        <v>11</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.761927718007858</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1687768224472146</v>
       </c>
     </row>
@@ -3940,72 +3736,66 @@
         <v>7.487462626986977e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.1496452909325797</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.611354625573889</v>
+        <v>2.853464434168995e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.0077987162030576</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.853464434168995e-06</v>
+        <v>0.1680406753775704</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.0077987162030576</v>
+        <v>0.02828967625755811</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1680406753775704</v>
+        <v>1.670201729845545</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.02828967625755811</v>
+        <v>1.588906165636795</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.586749922982716</v>
+        <v>3.188467103402659</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.588906165636795</v>
+        <v>5.296207997225063e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.188467103402659</v>
+        <v>38227616.36894891</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5.296207997225063e-15</v>
+        <v>2.93589004050963e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>38227616.36894891</v>
+        <v>7.739617016500828</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.93589004050963e-06</v>
+        <v>0.0001592262244203978</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>7.739617016500828</v>
+        <v>9.895496374555099</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001592262244203978</v>
+        <v>1.178982722726153</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.895496374555099</v>
+        <v>0.01559156699851097</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.178982722726153</v>
+        <v>2.797828533283417</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01559156699851097</v>
+        <v>0.9470206523363788</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.797828533283417</v>
+        <v>1.76349563693925</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9470206523363788</v>
+        <v>11</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.76349563693925</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1668063707869049</v>
       </c>
     </row>
@@ -4020,72 +3810,66 @@
         <v>7.434704705534388e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.1513767828147319</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.604012255193267</v>
+        <v>2.852914579142204e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.007384718806510321</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.852914579142204e-06</v>
+        <v>0.1685488865782777</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.007384718806510321</v>
+        <v>0.02845853913789333</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1685488865782777</v>
+        <v>1.676082639120957</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.02845853913789333</v>
+        <v>1.539061404391956</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.593365339082743</v>
+        <v>3.449955425555565</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.539061404391956</v>
+        <v>4.52378489461161e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.449955425555565</v>
+        <v>45722607.87535385</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>4.52378489461161e-15</v>
+        <v>2.476005461366224e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>45722607.87535385</v>
+        <v>9.457229594009656</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.476005461366224e-06</v>
+        <v>0.0001635209548799737</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>9.457229594009656</v>
+        <v>8.651939866032441</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001635209548799737</v>
+        <v>1.440161362980634</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.651939866032441</v>
+        <v>0.01224053497315448</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.440161362980634</v>
+        <v>2.921845370377647</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01224053497315448</v>
+        <v>0.9461690934394531</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.921845370377647</v>
+        <v>1.737238041927581</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9461690934394531</v>
+        <v>43</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.737238041927581</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1636111639846135</v>
       </c>
     </row>
@@ -4100,72 +3884,66 @@
         <v>7.387413725611122e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.1449630142591582</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.590150544880584</v>
+        <v>2.85230673524568e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.009494440968466421</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.85230673524568e-06</v>
+        <v>0.1712585913791715</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.009494440968466421</v>
+        <v>0.02941678820850609</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1712585913791715</v>
+        <v>1.686546399928004</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.02941678820850609</v>
+        <v>1.579282836990713</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.607799012367492</v>
+        <v>3.553001415151695</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.579282836990713</v>
+        <v>3.601167275846251e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.553001415151695</v>
+        <v>57679709.80596337</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.601167275846251e-15</v>
+        <v>1.965286372883379e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>57679709.80596337</v>
+        <v>11.98089959100041</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.965286372883379e-06</v>
+        <v>0.0001604270291339257</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>11.98089959100041</v>
+        <v>8.524062901372455</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001604270291339257</v>
+        <v>1.391301535887496</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.524062901372455</v>
+        <v>0.01165657152215344</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.391301535887496</v>
+        <v>2.905523597209844</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01165657152215344</v>
+        <v>0.9463390092404459</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.905523597209844</v>
+        <v>1.740466463302495</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9463390092404459</v>
+        <v>50</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.740466463302495</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1745503470975126</v>
       </c>
     </row>
@@ -4180,72 +3958,66 @@
         <v>7.331521295539596e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.1309629739539196</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.570610927254496</v>
+        <v>2.851477671728259e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.01305147873176972</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.851477671728259e-06</v>
+        <v>0.1742727481326735</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.01305147873176972</v>
+        <v>0.03053892660850855</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1742727481326735</v>
+        <v>1.695269038120421</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03053892660850855</v>
+        <v>1.568106268071588</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.616586821004047</v>
+        <v>3.937452910749192</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.568106268071588</v>
+        <v>2.932265630810382e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.937452910749192</v>
+        <v>70112729.10482551</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.932265630810382e-15</v>
+        <v>1.620077164345645e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>70112729.10482551</v>
+        <v>14.41441608891988</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.620077164345645e-06</v>
+        <v>0.0001601316829054846</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>14.41441608891988</v>
+        <v>9.699380684918033</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001601316829054846</v>
+        <v>1.23716491390301</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.699380684918033</v>
+        <v>0.01506486616984906</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.23716491390301</v>
+        <v>2.705102459669026</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01506486616984906</v>
+        <v>0.9459226934360072</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.705102459669026</v>
+        <v>1.738403313739724</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9459226934360072</v>
+        <v>50</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.738403313739724</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1920365959438572</v>
       </c>
     </row>
@@ -4260,72 +4032,66 @@
         <v>7.268339718135415e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.1086207615508499</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.546623417535807</v>
+        <v>2.850414742713492e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.01599026792996581</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.850414742713492e-06</v>
+        <v>0.1772433323600013</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.01599026792996581</v>
+        <v>0.03166861703800614</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1772433323600013</v>
+        <v>1.731412452549532</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.03166861703800614</v>
+        <v>1.755823985560829</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.658735812006513</v>
+        <v>3.48113643033245</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.755823985560829</v>
+        <v>2.311861059781365e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.48113643033245</v>
+        <v>85080614.42069963</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.311861059781365e-15</v>
+        <v>1.343548383638753e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>85080614.42069963</v>
+        <v>16.73489396878904</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.343548383638753e-06</v>
+        <v>0.0001541530019133969</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>16.73489396878904</v>
+        <v>9.298438490477483</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001541530019133969</v>
+        <v>1.224439158204595</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.298438490477483</v>
+        <v>0.01332821627968714</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.224439158204595</v>
+        <v>2.755576930245065</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01332821627968714</v>
+        <v>0.9481103673425088</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.755576930245065</v>
+        <v>1.724282876840837</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9481103673425088</v>
+        <v>50</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.724282876840837</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.1952878831472613</v>
       </c>
     </row>
@@ -4340,72 +4106,66 @@
         <v>7.204182268643838e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.07730151197303496</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.520025333411233</v>
+        <v>2.849157665835424e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.01886513179708014</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.849157665835424e-06</v>
+        <v>0.1800602801066977</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.01886513179708014</v>
+        <v>0.03277560576405337</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1800602801066977</v>
+        <v>1.775938690408239</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.03277560576405337</v>
+        <v>1.623840252269321</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.710841412898835</v>
+        <v>3.4889015254308</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.623840252269321</v>
+        <v>2.301581696169422e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.4889015254308</v>
+        <v>83309349.40069547</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>2.301581696169422e-15</v>
+        <v>1.388708174947474e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>83309349.40069547</v>
+        <v>15.97400738394178</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.388708174947474e-06</v>
+        <v>0.0001401377539246376</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>15.97400738394178</v>
+        <v>8.404878135547346</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001401377539246376</v>
+        <v>1.233383693877893</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.404878135547346</v>
+        <v>0.009899607915779627</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.233383693877893</v>
+        <v>2.894204196226294</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.009899607915779627</v>
+        <v>0.9507588757583029</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.894204196226294</v>
+        <v>1.663131142114095</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9507588757583029</v>
+        <v>49</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.663131142114095</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2168436447058669</v>
       </c>
     </row>
@@ -4420,72 +4180,66 @@
         <v>7.137311849309252e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.03752823859959874</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.491047507541697</v>
+        <v>2.847675541929727e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.02268156365489364</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.847675541929727e-06</v>
+        <v>0.1825655077379823</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.02268156365489364</v>
+        <v>0.03384246280940043</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1825655077379823</v>
+        <v>1.765122630080135</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.03384246280940043</v>
+        <v>1.631593382487757</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.711272843993848</v>
+        <v>3.686173232407434</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.631593382487757</v>
+        <v>2.01423021421302e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.686173232407434</v>
+        <v>92022288.37126152</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>2.01423021421302e-15</v>
+        <v>1.245696612631723e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>92022288.37126152</v>
+        <v>17.05670601330214</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.245696612631723e-06</v>
+        <v>0.0001327670832053305</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>17.05670601330214</v>
+        <v>7.971182115639511</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001327670832053305</v>
+        <v>1.382888398301018</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.971182115639511</v>
+        <v>0.008435986521070634</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.382888398301018</v>
+        <v>2.987272313661994</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.008435986521070634</v>
+        <v>0.9493945498913841</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.987272313661994</v>
+        <v>1.668895158196533</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9493945498913841</v>
+        <v>49</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.668895158196533</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2581644258655807</v>
       </c>
     </row>
@@ -4500,72 +4254,66 @@
         <v>7.059462625810371e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.008266082490981531</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.458775471831859</v>
+        <v>2.845906090423174e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.02706078125275196</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.845906090423174e-06</v>
+        <v>0.1844647424566238</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.02706078125275196</v>
+        <v>0.03475827126360941</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1844647424566238</v>
+        <v>1.766129908165834</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.03475827126360941</v>
+        <v>1.630189058551034</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.709859986022079</v>
+        <v>3.999507162202155</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.630189058551034</v>
+        <v>1.665783950589987e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.999507162202155</v>
+        <v>110926174.1742544</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.665783950589987e-15</v>
+        <v>1.03359282919017e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>110926174.1742544</v>
+        <v>20.49683204576457</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.03359282919017e-06</v>
+        <v>0.0001403143737396241</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>20.49683204576457</v>
+        <v>8.545284119570914</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001403143737396241</v>
+        <v>1.474704900329786</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>8.545284119570914</v>
+        <v>0.01024601945749179</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.474704900329786</v>
+        <v>2.926918328636763</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01024601945749179</v>
+        <v>0.9507836574473147</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.926918328636763</v>
+        <v>1.662991775502751</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9507836574473147</v>
+        <v>49</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.662991775502751</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2926677646230624</v>
       </c>
     </row>
@@ -4580,72 +4328,66 @@
         <v>6.969539047602399e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.05676473221342836</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.422895716436995</v>
+        <v>2.843911756763412e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.02935666117915573</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.843911756763412e-06</v>
+        <v>0.1868428093240985</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.02935666117915573</v>
+        <v>0.03577180555460728</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1868428093240985</v>
+        <v>1.775138630757199</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.03577180555460728</v>
+        <v>1.698914303171045</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.71815271177356</v>
+        <v>4.001188953431429</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.698914303171045</v>
+        <v>1.234254176320633e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.001188953431429</v>
+        <v>155361688.8498598</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.234254176320633e-15</v>
+        <v>7.433271253140301e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>155361688.8498598</v>
+        <v>29.79150700155832</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>7.433271253140301e-07</v>
+        <v>0.0001349642925510493</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>29.79150700155832</v>
+        <v>8.065438045403212</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001349642925510493</v>
+        <v>1.326853691947573</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>8.065438045403212</v>
+        <v>0.008779601451024367</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.326853691947573</v>
+        <v>3.0352415571917</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.008779601451024367</v>
+        <v>0.9525025565395568</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.0352415571917</v>
+        <v>1.64987282767283</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9525025565395568</v>
+        <v>49</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.64987282767283</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2751341700806884</v>
       </c>
     </row>
@@ -4660,72 +4402,66 @@
         <v>6.879523995079023e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.108321395309284</v>
+        <v>2.110069511764519e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.381163634181814</v>
+        <v>2.841861001308076e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.110069511764519e-07</v>
+        <v>-0.02966611320119948</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.841861001308076e-06</v>
+        <v>0.1892613375598816</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.02966611320119948</v>
+        <v>0.03669934036238055</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1892613375598816</v>
+        <v>1.76835304806282</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.03669934036238055</v>
+        <v>1.971456527698257</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.727541089586945</v>
+        <v>4.3174074310954</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.971456527698257</v>
+        <v>1.060075160387715e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.3174074310954</v>
+        <v>177715106.1636808</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.060075160387715e-15</v>
+        <v>6.482170524888434e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>177715106.1636808</v>
+        <v>33.47999226118687</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>6.482170524888434e-07</v>
+        <v>0.0001491183328332897</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>33.47999226118687</v>
+        <v>9.092917329070294</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001491183328332897</v>
+        <v>1.2604966389281</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.092917329070294</v>
+        <v>0.01232927458165568</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.2604966389281</v>
+        <v>3.012675295003199</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01232927458165568</v>
+        <v>0.9528396223638178</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.012675295003199</v>
+        <v>1.640035214705118</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9528396223638178</v>
+        <v>49</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.640035214705118</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2812544217972355</v>
       </c>
     </row>
@@ -5102,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.449961481329324</v>
+        <v>1.442853076104838</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.327598430209128</v>
@@ -5191,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.421977430752702</v>
+        <v>1.417698245860576</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.388531344334023</v>
@@ -5280,7 +5016,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433184952885338</v>
+        <v>1.423229761953568</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.39103086282125</v>
@@ -5369,7 +5105,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.435618048034901</v>
+        <v>1.418523744756407</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.244216433118813</v>
@@ -5458,7 +5194,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46662233142862</v>
+        <v>1.440133980214305</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.277716262157446</v>
@@ -5547,7 +5283,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.464075873947819</v>
+        <v>1.432144654953893</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.21795445368439</v>
@@ -5636,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.462338778048978</v>
+        <v>1.425958445226759</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.256319861415903</v>
@@ -5725,7 +5461,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.464591844695649</v>
+        <v>1.424916528652314</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.301945460923086</v>
@@ -5814,7 +5550,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.467246712358421</v>
+        <v>1.424794019856219</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.265466888803441</v>
@@ -5903,7 +5639,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465924303190614</v>
+        <v>1.427947433335805</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.247706018739612</v>
@@ -5992,7 +5728,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.469616769891598</v>
+        <v>1.426671221792594</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.332278825558005</v>
@@ -6081,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.473508292155532</v>
+        <v>1.43280725816781</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.357016524726373</v>
@@ -6170,7 +5906,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.493414209399762</v>
+        <v>1.445595945011879</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.249269467871173</v>
@@ -6259,7 +5995,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.498882809479003</v>
+        <v>1.444154441459298</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.211816777599123</v>
@@ -6348,7 +6084,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565882084470632</v>
+        <v>1.498113255882009</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.20598368835041</v>
@@ -6437,7 +6173,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.61210679384911</v>
+        <v>1.524073075853655</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.276890424140894</v>
@@ -6526,7 +6262,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.679512729773541</v>
+        <v>1.570349616263785</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.199497944399509</v>
@@ -6615,7 +6351,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.708399764405837</v>
+        <v>1.591817215681623</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.858839095317405</v>
@@ -6704,7 +6440,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.713658526722647</v>
+        <v>1.605640621403254</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.592118795644539</v>
@@ -6793,7 +6529,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.704841630949112</v>
+        <v>1.610810314737161</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.666338421849262</v>
@@ -6882,7 +6618,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.707969406082685</v>
+        <v>1.618161314042826</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.763889228809448</v>
@@ -6971,7 +6707,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.702636237333561</v>
+        <v>1.616656207902968</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.512153699762971</v>
@@ -7060,7 +6796,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.706680329042859</v>
+        <v>1.615316279540384</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.149558604321564</v>
@@ -7149,7 +6885,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702851154800424</v>
+        <v>1.626090950934363</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.558988697097245</v>
@@ -7238,7 +6974,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.696126815288436</v>
+        <v>1.619274096372035</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.29334133665382</v>
@@ -7327,7 +7063,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.684284871597867</v>
+        <v>1.621483018740107</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.530038260760331</v>
@@ -7416,7 +7152,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.685578299448099</v>
+        <v>1.621559563490591</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.664933289383169</v>
@@ -7505,7 +7241,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.671001092153528</v>
+        <v>1.60271598232553</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.359273052871852</v>
@@ -7594,7 +7330,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.666203817539944</v>
+        <v>1.593479533295131</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.349552372849642</v>
@@ -7683,7 +7419,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.658894632341478</v>
+        <v>1.589223899008153</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.543434014662157</v>
@@ -7772,7 +7508,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.649114885607027</v>
+        <v>1.583856070933416</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.453410817868977</v>
@@ -7861,7 +7597,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.657618750395022</v>
+        <v>1.591416674943971</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.344071644246754</v>
@@ -7950,7 +7686,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.658928794435898</v>
+        <v>1.587278248012882</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.432013812071824</v>
@@ -8039,7 +7775,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.666730490471771</v>
+        <v>1.590957550940136</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.376923463988998</v>
@@ -8128,7 +7864,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.664609358861245</v>
+        <v>1.588464751686484</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.455796999308731</v>
@@ -8217,7 +7953,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.665899989475385</v>
+        <v>1.591769041707506</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.19260509022005</v>
@@ -8306,7 +8042,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.677010011351944</v>
+        <v>1.601172908407738</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.226181337585834</v>
@@ -8395,7 +8131,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.679527579763934</v>
+        <v>1.612584620751931</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.33300919344713</v>
@@ -8484,7 +8220,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.680711568588391</v>
+        <v>1.607792260269941</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.427050771468367</v>
@@ -8573,7 +8309,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.691079142353798</v>
+        <v>1.608830237906798</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.3126841092432</v>
@@ -8662,7 +8398,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705726510410297</v>
+        <v>1.61536114335072</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.063825933605507</v>
@@ -8751,7 +8487,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.696094095307935</v>
+        <v>1.611249559585793</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.725336543792837</v>
@@ -8840,7 +8576,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.711196137226126</v>
+        <v>1.626099584039337</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.50941834859597</v>
@@ -8929,7 +8665,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.715374435524507</v>
+        <v>1.635669977022014</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.385799377906989</v>
@@ -9018,7 +8754,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.723968000113092</v>
+        <v>1.641904190739904</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.515144704207413</v>
@@ -9107,7 +8843,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.736742273350559</v>
+        <v>1.647195224321093</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.335275711524194</v>
@@ -9196,7 +8932,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.739157726814512</v>
+        <v>1.642915158617283</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.826603270216072</v>
@@ -9285,7 +9021,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.737162536215076</v>
+        <v>1.643724254621745</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.621272268397139</v>
@@ -9374,7 +9110,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.724209474856505</v>
+        <v>1.637512020178013</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.76533111161035</v>
@@ -9463,7 +9199,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.70927713779247</v>
+        <v>1.628280757615041</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.869927754103694</v>
@@ -9552,7 +9288,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.697803627599032</v>
+        <v>1.622676641243</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.955116265017363</v>
@@ -9641,7 +9377,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.698115858685375</v>
+        <v>1.626896131108391</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.85686072294405</v>
@@ -9730,7 +9466,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.694796656649277</v>
+        <v>1.624982800622216</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.855445647655165</v>
@@ -9819,7 +9555,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.690168280157871</v>
+        <v>1.623219644035656</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.889568248589334</v>
@@ -9908,7 +9644,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.69083810337332</v>
+        <v>1.633059559246046</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.218942795139701</v>
@@ -9997,7 +9733,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.690547369018018</v>
+        <v>1.63571562565498</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.686743667159488</v>
@@ -10086,7 +9822,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.7009515247059</v>
+        <v>1.635326623390234</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.793254842090227</v>
@@ -10175,7 +9911,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.703019423716149</v>
+        <v>1.641577862264678</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.400449050411223</v>
@@ -10264,7 +10000,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.693755672250818</v>
+        <v>1.630343215434207</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.030198725972754</v>
@@ -10353,7 +10089,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.682000466904888</v>
+        <v>1.617784520078494</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.533817238646391</v>
@@ -10442,7 +10178,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.673694598639135</v>
+        <v>1.612863683523554</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.620509770582482</v>
@@ -10531,7 +10267,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.672259722819007</v>
+        <v>1.607616402880658</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.352352692509363</v>
@@ -10620,7 +10356,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.658515862671312</v>
+        <v>1.596067897719362</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.704228011697376</v>
@@ -10709,7 +10445,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.669116185639669</v>
+        <v>1.604417287723294</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.045281770346151</v>
@@ -10798,7 +10534,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.678132688813301</v>
+        <v>1.610583441415295</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.05705255916895</v>
@@ -10887,7 +10623,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.691148166114682</v>
+        <v>1.6192163781682</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.770087209887734</v>
@@ -10976,7 +10712,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.675152278020126</v>
+        <v>1.610336440133427</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.500403257219956</v>
@@ -11065,7 +10801,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.674563039213899</v>
+        <v>1.60616252330703</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.535076332397109</v>
@@ -11154,7 +10890,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.670074723908258</v>
+        <v>1.598125797705494</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.550307717160594</v>
@@ -11243,7 +10979,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.658805676836632</v>
+        <v>1.588801403899725</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.637308316033286</v>
@@ -11332,7 +11068,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.643276698298704</v>
+        <v>1.574371751839972</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.356461698513801</v>
@@ -11421,7 +11157,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.637685556003677</v>
+        <v>1.578595684309485</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.444316270441742</v>
@@ -11510,7 +11246,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.62594170394295</v>
+        <v>1.566075795862864</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.13766019069798</v>
@@ -11599,7 +11335,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.620248356754157</v>
+        <v>1.562883961784876</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.310241702795902</v>
@@ -11688,7 +11424,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.61311175840427</v>
+        <v>1.557545532943049</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.243986452122447</v>
@@ -11777,7 +11513,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.606919692319891</v>
+        <v>1.544804550452176</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.041846669861672</v>
@@ -11866,7 +11602,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.586102891663525</v>
+        <v>1.537195885396943</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.014491617584469</v>
@@ -11955,7 +11691,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.590105671460895</v>
+        <v>1.5409015939933</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.957790908848434</v>
@@ -12044,7 +11780,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.589814727399931</v>
+        <v>1.54141488054859</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.067795167596088</v>
@@ -12133,7 +11869,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.583620781268899</v>
+        <v>1.533227561885171</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.917054660520395</v>
@@ -12222,7 +11958,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.587472398338214</v>
+        <v>1.52942371619793</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.967819385200531</v>
@@ -12311,7 +12047,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.596304618793673</v>
+        <v>1.535297331565041</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.103017710133676</v>
@@ -12400,7 +12136,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.593639615230884</v>
+        <v>1.532251765917878</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.095536364450076</v>
@@ -12489,7 +12225,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.594927315993102</v>
+        <v>1.53329324140929</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.134971279529235</v>
@@ -12578,7 +12314,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.593826701912006</v>
+        <v>1.530016323856495</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.955664226120884</v>
@@ -12667,7 +12403,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.61150744490185</v>
+        <v>1.542979679437536</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.887714041791699</v>
@@ -12756,7 +12492,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.618025122782913</v>
+        <v>1.547551341315266</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.127572073063118</v>
@@ -13042,7 +12778,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.616258976344966</v>
+        <v>1.634882298963997</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.419387721795851</v>
@@ -13131,7 +12867,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612238697454988</v>
+        <v>1.631887530559846</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.345681227437417</v>
@@ -13220,7 +12956,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.618224687725664</v>
+        <v>1.635959776491495</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.403253160615715</v>
@@ -13309,7 +13045,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.596163067170132</v>
+        <v>1.605669790660903</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.238630245578469</v>
@@ -13398,7 +13134,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.618080483316586</v>
+        <v>1.624971205099902</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.359564019924879</v>
@@ -13487,7 +13223,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.620945543295488</v>
+        <v>1.629982897918719</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.229978391240802</v>
@@ -13576,7 +13312,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.647007586815293</v>
+        <v>1.649957625191806</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.334471603208359</v>
@@ -13665,7 +13401,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.644567194197589</v>
+        <v>1.646755552128286</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.358207832363791</v>
@@ -13754,7 +13490,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.642787928744835</v>
+        <v>1.642849999897468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.343177248035363</v>
@@ -13843,7 +13579,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.634476460662342</v>
+        <v>1.635582817709635</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.374338963017341</v>
@@ -13932,7 +13668,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.622053242130102</v>
+        <v>1.62123748711746</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.286398233250594</v>
@@ -14021,7 +13757,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.606080301229646</v>
+        <v>1.609197315811822</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.302802793756732</v>
@@ -14110,7 +13846,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.610457427876749</v>
+        <v>1.611229339972013</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.299297858287641</v>
@@ -14199,7 +13935,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.580128408348661</v>
+        <v>1.573781790628047</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.24137737466572</v>
@@ -14288,7 +14024,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.646031091255576</v>
+        <v>1.628531162390875</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.603622907303594</v>
@@ -14377,7 +14113,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.66093298117073</v>
+        <v>1.640372931622286</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.716178194898888</v>
@@ -14466,7 +14202,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662638395408644</v>
+        <v>1.639581245558094</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.466845280718037</v>
@@ -14555,7 +14291,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.676325253124205</v>
+        <v>1.647403274966944</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.631521340448905</v>
@@ -14644,7 +14380,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711914746288045</v>
+        <v>1.67701380177026</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.112610099917774</v>
@@ -14733,7 +14469,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.696105450343207</v>
+        <v>1.656572529363058</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.010444605834667</v>
@@ -14822,7 +14558,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.685907049559261</v>
+        <v>1.642687227861543</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.274236194958659</v>
@@ -14911,7 +14647,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.645326981951223</v>
+        <v>1.614145413604391</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.94569551033801</v>
@@ -15000,7 +14736,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610543446191833</v>
+        <v>1.593518243102405</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.367127648928345</v>
@@ -15089,7 +14825,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59056406024378</v>
+        <v>1.591050254650199</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.387614668226043</v>
@@ -15178,7 +14914,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.59372238211292</v>
+        <v>1.595588762068489</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.448558689792644</v>
@@ -15267,7 +15003,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.603601203769935</v>
+        <v>1.606895437174549</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.449862540412229</v>
@@ -15356,7 +15092,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.618643597129417</v>
+        <v>1.621054523136483</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.482873721209562</v>
@@ -15445,7 +15181,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62010971028787</v>
+        <v>1.621318317143417</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.527486859214266</v>
@@ -15534,7 +15270,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.628479174570783</v>
+        <v>1.626976696678968</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.524894890083576</v>
@@ -15623,7 +15359,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.623628578953231</v>
+        <v>1.622532335047567</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.505929058265658</v>
@@ -15712,7 +15448,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.618751763872168</v>
+        <v>1.618910621314573</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.540069127665532</v>
@@ -15801,7 +15537,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.629070603954442</v>
+        <v>1.627477792399796</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.51937896008149</v>
@@ -15890,7 +15626,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627334741123802</v>
+        <v>1.623085832894205</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.522355051627316</v>
@@ -15979,7 +15715,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.618114857459434</v>
+        <v>1.615391493731239</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.522071596998289</v>
@@ -16068,7 +15804,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.61755258695777</v>
+        <v>1.615011928511074</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.490576291107232</v>
@@ -16157,7 +15893,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.618903932452816</v>
+        <v>1.618273915857726</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.483842038262043</v>
@@ -16246,7 +15982,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.652071826229041</v>
+        <v>1.642725483017596</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.424554606601739</v>
@@ -16335,7 +16071,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.679802811107132</v>
+        <v>1.654237930886773</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.002559265019626</v>
@@ -16424,7 +16160,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.677533567775687</v>
+        <v>1.63973133052817</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.313534437576326</v>
@@ -16513,7 +16249,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.658936468770228</v>
+        <v>1.625548682108058</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.411324530828713</v>
@@ -16602,7 +16338,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.653474031643792</v>
+        <v>1.616373612989776</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.286252994591038</v>
@@ -16691,7 +16427,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.632529167437841</v>
+        <v>1.595673925696567</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.799582634983822</v>
@@ -16780,7 +16516,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626054021377628</v>
+        <v>1.591954125459636</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.061544585677611</v>
@@ -16869,7 +16605,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.625615373155469</v>
+        <v>1.596976622565559</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.996710335414402</v>
@@ -16958,7 +16694,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.63646392178546</v>
+        <v>1.60763715023203</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.76911244977516</v>
@@ -17047,7 +16783,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.635750331217113</v>
+        <v>1.611728662116911</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.207449860074764</v>
@@ -17136,7 +16872,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.630432322052982</v>
+        <v>1.609677976479151</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.180129724958233</v>
@@ -17225,7 +16961,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.63145304061119</v>
+        <v>1.612475612735948</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.179452509540602</v>
@@ -17314,7 +17050,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.639015438547821</v>
+        <v>1.616048111609754</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.368541398785427</v>
@@ -17403,7 +17139,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.638506349536288</v>
+        <v>1.61724383848143</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.195842376024085</v>
@@ -17492,7 +17228,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.647013744312469</v>
+        <v>1.625104834676697</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.100307001279997</v>
@@ -17581,7 +17317,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.644372863038929</v>
+        <v>1.62789074825771</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.308919446418128</v>
@@ -17670,7 +17406,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629136255259675</v>
+        <v>1.616232747632609</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.853087701994539</v>
@@ -17759,7 +17495,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.640492988780565</v>
+        <v>1.623883267845252</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.525563433901386</v>
@@ -17848,7 +17584,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.651005326107571</v>
+        <v>1.632451919034305</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.894431825585959</v>
@@ -17937,7 +17673,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.625160428816191</v>
+        <v>1.617207915658594</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.607887365832442</v>
@@ -18026,7 +17762,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.618705595224263</v>
+        <v>1.605563915735128</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.499367167429181</v>
@@ -18115,7 +17851,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.612721324748452</v>
+        <v>1.610958093121149</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.736343113221157</v>
@@ -18204,7 +17940,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.600646632823983</v>
+        <v>1.60161450260904</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.65128321327243</v>
@@ -18293,7 +18029,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.593598681450151</v>
+        <v>1.599696171698983</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.596541312157085</v>
@@ -18382,7 +18118,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.606516473308719</v>
+        <v>1.607096770772396</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.695292272669207</v>
@@ -18471,7 +18207,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.617938718921325</v>
+        <v>1.609093371890547</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.834548142255413</v>
@@ -18560,7 +18296,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.593289379063263</v>
+        <v>1.581749626271624</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.807835339496929</v>
@@ -18649,7 +18385,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.603222296658406</v>
+        <v>1.596641959762391</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.927120930405234</v>
@@ -18738,7 +18474,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.609764788282589</v>
+        <v>1.603585902423316</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.958721051789375</v>
@@ -18827,7 +18563,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.604250683820715</v>
+        <v>1.603390479985453</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.075060539471947</v>
@@ -18916,7 +18652,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.599660151029717</v>
+        <v>1.59813536225932</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.749420455358308</v>
@@ -19005,7 +18741,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.604425024435632</v>
+        <v>1.598248095094174</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.897841224481675</v>
@@ -19094,7 +18830,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.612634374672984</v>
+        <v>1.606695350796492</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.977632153221558</v>
@@ -19183,7 +18919,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.6128056593767</v>
+        <v>1.610527932441852</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.934487098217068</v>
@@ -19272,7 +19008,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.613912693338778</v>
+        <v>1.612062756393576</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.873671545747836</v>
@@ -19361,7 +19097,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.633259744294758</v>
+        <v>1.632518433434034</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.61463573950034</v>
@@ -19450,7 +19186,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.63065427389206</v>
+        <v>1.629945115861018</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.135921140084634</v>
@@ -19539,7 +19275,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.635266477044576</v>
+        <v>1.634458299867689</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.861632664153948</v>
@@ -19628,7 +19364,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.640938181491037</v>
+        <v>1.632586109990631</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.69833891332417</v>
@@ -19717,7 +19453,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.634328361266434</v>
+        <v>1.625301180203606</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.871728670902574</v>
@@ -19806,7 +19542,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.626865089186675</v>
+        <v>1.625771623431403</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.575406517814875</v>
@@ -19895,7 +19631,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.637519918732561</v>
+        <v>1.635843168797357</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.959983144097386</v>
@@ -19984,7 +19720,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.642184869292274</v>
+        <v>1.639362705744948</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.069321120115994</v>
@@ -20073,7 +19809,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.648600103050514</v>
+        <v>1.647411081409474</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.892394545071163</v>
@@ -20162,7 +19898,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.650952821959707</v>
+        <v>1.648328449356717</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.975522913836532</v>
@@ -20251,7 +19987,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.655685164207445</v>
+        <v>1.652624082021223</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.98407585678932</v>
@@ -20340,7 +20076,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.662527454210786</v>
+        <v>1.659216606204351</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.120943573161866</v>
@@ -20429,7 +20165,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.663767036006293</v>
+        <v>1.659411831249172</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.06739000998845</v>
@@ -20518,7 +20254,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.660991304674891</v>
+        <v>1.65412967832433</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.054995351534622</v>
@@ -20607,7 +20343,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.691322291949209</v>
+        <v>1.678766699171794</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.033435521793028</v>
@@ -20696,7 +20432,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.68478083463812</v>
+        <v>1.667343198070904</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.959610651054643</v>
@@ -20982,7 +20718,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.603543341339314</v>
+        <v>1.609187192105274</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.351789167512686</v>
@@ -21071,7 +20807,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.602646572525283</v>
+        <v>1.608225661033963</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.275435317574356</v>
@@ -21160,7 +20896,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60531557194002</v>
+        <v>1.612549156339586</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.323545872400968</v>
@@ -21249,7 +20985,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.578696213281001</v>
+        <v>1.577941244342388</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.314930350245114</v>
@@ -21338,7 +21074,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.616139578288568</v>
+        <v>1.604328383443049</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.309513231406167</v>
@@ -21427,7 +21163,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.614381096547019</v>
+        <v>1.595829569696974</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.159916632759012</v>
@@ -21516,7 +21252,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.636673495095323</v>
+        <v>1.608609395577467</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.226905273557388</v>
@@ -21605,7 +21341,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.63234594785665</v>
+        <v>1.604307802886933</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.203194650857937</v>
@@ -21694,7 +21430,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.629704877041451</v>
+        <v>1.596387638278148</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.228286903567249</v>
@@ -21783,7 +21519,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630291272102705</v>
+        <v>1.596398381112919</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.246373472225125</v>
@@ -21872,7 +21608,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.618040639328621</v>
+        <v>1.580161236261721</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.190264230355432</v>
@@ -21961,7 +21697,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.609564589301423</v>
+        <v>1.577163690643339</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.268461635471981</v>
@@ -22050,7 +21786,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.622194474594397</v>
+        <v>1.586717819539365</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.2734070671766</v>
@@ -22139,7 +21875,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.617264444671446</v>
+        <v>1.57623081147175</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.231555592699334</v>
@@ -22228,7 +21964,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.667771038184924</v>
+        <v>1.595905215958074</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.410420354045702</v>
@@ -22317,7 +22053,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.699060409618274</v>
+        <v>1.614612710308174</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.698510745770674</v>
@@ -22406,7 +22142,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.705039127432092</v>
+        <v>1.620508575320536</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.816299417509808</v>
@@ -22495,7 +22231,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.710773603402868</v>
+        <v>1.615846656661656</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.200403858301502</v>
@@ -22584,7 +22320,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.711618530550156</v>
+        <v>1.621399023978478</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.039227182268139</v>
@@ -22673,7 +22409,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.708349283836173</v>
+        <v>1.622384470960509</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.182847051673022</v>
@@ -22762,7 +22498,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.708228215203629</v>
+        <v>1.626327015380649</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.142049505132792</v>
@@ -22851,7 +22587,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.695902449966058</v>
+        <v>1.624328931129539</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.873285045653872</v>
@@ -22940,7 +22676,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.716091953420362</v>
+        <v>1.645977024847326</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.6817697990322</v>
@@ -23029,7 +22765,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.716678439336583</v>
+        <v>1.668635964427028</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.751075574025081</v>
@@ -23118,7 +22854,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.69866192630281</v>
+        <v>1.660805416444952</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.844053560108136</v>
@@ -23207,7 +22943,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.697928081105665</v>
+        <v>1.666734631129873</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.809987517645175</v>
@@ -23296,7 +23032,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693128495545888</v>
+        <v>1.662095486968563</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.975630330905144</v>
@@ -23385,7 +23121,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.690295418761253</v>
+        <v>1.651751707822307</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.820073957475914</v>
@@ -23474,7 +23210,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682515038976972</v>
+        <v>1.639528943440161</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.829485890335856</v>
@@ -23563,7 +23299,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.67394101848426</v>
+        <v>1.63454284047653</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.842236903712617</v>
@@ -23652,7 +23388,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.675627759862499</v>
+        <v>1.638529903257373</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.817328574922715</v>
@@ -23741,7 +23477,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684241242084414</v>
+        <v>1.645933748886949</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.058157170451904</v>
@@ -23830,7 +23566,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.684934354191803</v>
+        <v>1.648884683048824</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.98349922555805</v>
@@ -23919,7 +23655,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.688149002987841</v>
+        <v>1.656115765620453</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.834187209438578</v>
@@ -24008,7 +23744,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.698644675472031</v>
+        <v>1.667279010090362</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.756999396808836</v>
@@ -24097,7 +23833,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.703874978339929</v>
+        <v>1.671111054646025</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.098434391074808</v>
@@ -24186,7 +23922,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.707857186112346</v>
+        <v>1.670868454930228</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.019401196324003</v>
@@ -24275,7 +24011,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.709281807648286</v>
+        <v>1.668400042210683</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.668643719303751</v>
@@ -24364,7 +24100,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.704610409139353</v>
+        <v>1.647640858980612</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.924815932687108</v>
@@ -24453,7 +24189,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.723955064426879</v>
+        <v>1.666882178252432</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.556615715908477</v>
@@ -24542,7 +24278,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.733354622428684</v>
+        <v>1.66790264367458</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.202464634707704</v>
@@ -24631,7 +24367,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.751111836504724</v>
+        <v>1.68393474929261</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.387069892279454</v>
@@ -24720,7 +24456,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.767258579431455</v>
+        <v>1.70569625232473</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.677411300318008</v>
@@ -24809,7 +24545,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.784988125070795</v>
+        <v>1.727796181353031</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.985216638815349</v>
@@ -24898,7 +24634,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.795868559138921</v>
+        <v>1.733287331593814</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.841056886463469</v>
@@ -24987,7 +24723,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.791609205143757</v>
+        <v>1.729142554778195</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.071362622353957</v>
@@ -25076,7 +24812,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.793183304847197</v>
+        <v>1.732184849123096</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.786112471927946</v>
@@ -25165,7 +24901,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.789412362038247</v>
+        <v>1.729280760831587</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.947983685804385</v>
@@ -25254,7 +24990,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.793961444427784</v>
+        <v>1.737171644121483</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.148752762666509</v>
@@ -25343,7 +25079,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.777595487904504</v>
+        <v>1.728028493072807</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.900183721463542</v>
@@ -25432,7 +25168,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.773298478254024</v>
+        <v>1.719738051153715</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.72728029827744</v>
@@ -25521,7 +25257,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.772662670260437</v>
+        <v>1.720349142685338</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.809005835386286</v>
@@ -25610,7 +25346,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.762038650553723</v>
+        <v>1.710871484900652</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.946241816544556</v>
@@ -25699,7 +25435,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.754477408331897</v>
+        <v>1.712169491106146</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.232813815372846</v>
@@ -25788,7 +25524,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.747747691492779</v>
+        <v>1.701209336934331</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.521574836277929</v>
@@ -25877,7 +25613,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.722385983246898</v>
+        <v>1.69254562632955</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.966842470712264</v>
@@ -25966,7 +25702,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.69127769603228</v>
+        <v>1.662659740444749</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.801016261954107</v>
@@ -26055,7 +25791,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.671320125099777</v>
+        <v>1.650579391428095</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.854220805836917</v>
@@ -26144,7 +25880,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.643967969688776</v>
+        <v>1.62780421854052</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.913775270282978</v>
@@ -26233,7 +25969,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.628381512293167</v>
+        <v>1.619564455003417</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.65819925950041</v>
@@ -26322,7 +26058,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.623447508330931</v>
+        <v>1.613701603645955</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.117516424244641</v>
@@ -26411,7 +26147,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.621002111179162</v>
+        <v>1.607522072453355</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.024289179092058</v>
@@ -26500,7 +26236,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.594081919527042</v>
+        <v>1.577791837512742</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.713207572301104</v>
@@ -26589,7 +26325,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.587609615406303</v>
+        <v>1.575493559499668</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.967482565014257</v>
@@ -26678,7 +26414,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.593482909474477</v>
+        <v>1.576105627412</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.120021347065494</v>
@@ -26767,7 +26503,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.59207276798819</v>
+        <v>1.580195088935712</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.915992082238932</v>
@@ -26856,7 +26592,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.584703607763081</v>
+        <v>1.574796802777389</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.875530036225685</v>
@@ -26945,7 +26681,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.572928631115444</v>
+        <v>1.562372179864284</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.911213805830729</v>
@@ -27034,7 +26770,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.577784299714916</v>
+        <v>1.560201957594372</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.170005070353569</v>
@@ -27123,7 +26859,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.580968545284557</v>
+        <v>1.567801960450548</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.903216925698131</v>
@@ -27212,7 +26948,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.568215156188579</v>
+        <v>1.550626007896932</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.860086366327216</v>
@@ -27301,7 +27037,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.591388171854994</v>
+        <v>1.573035785624315</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.468145768673874</v>
@@ -27390,7 +27126,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.58571925922913</v>
+        <v>1.568097267913988</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.925318738570942</v>
@@ -27479,7 +27215,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.601631711104956</v>
+        <v>1.579793809974351</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.800748650397301</v>
@@ -27568,7 +27304,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.612028450648362</v>
+        <v>1.583926900676794</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.651220031861097</v>
@@ -27657,7 +27393,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.605255424607023</v>
+        <v>1.576940602446199</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.870508635620472</v>
@@ -27746,7 +27482,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.602567593628297</v>
+        <v>1.575435750942528</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.794821422109946</v>
@@ -27835,7 +27571,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.624976119636697</v>
+        <v>1.593721733505705</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.681983082298222</v>
@@ -27924,7 +27660,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.633981256984824</v>
+        <v>1.599300352878128</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.928620855798263</v>
@@ -28013,7 +27749,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.633080858138637</v>
+        <v>1.59776433733593</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.025706482118557</v>
@@ -28102,7 +27838,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.633125693222042</v>
+        <v>1.596106755432338</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.777637694681204</v>
@@ -28191,7 +27927,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.631040794946306</v>
+        <v>1.599085389057377</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.98422914233695</v>
@@ -28280,7 +28016,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.648076651524524</v>
+        <v>1.616236156986689</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.101489030776161</v>
@@ -28369,7 +28105,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.650487055677231</v>
+        <v>1.620776376784627</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.919771056976302</v>
@@ -28458,7 +28194,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.636049100767242</v>
+        <v>1.601106515805312</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.977965212901981</v>
@@ -28547,7 +28283,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.668063153598507</v>
+        <v>1.631699469140641</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.553115810519579</v>
@@ -28636,7 +28372,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.645678666648725</v>
+        <v>1.615531104343352</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.139204062492959</v>
@@ -28922,7 +28658,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.688475302388875</v>
+        <v>1.687486625950393</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.40292837140149</v>
@@ -29011,7 +28747,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.673953704657826</v>
+        <v>1.67760367276328</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.351157258722532</v>
@@ -29100,7 +28836,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.679102143383621</v>
+        <v>1.682919164836954</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.378099654613868</v>
@@ -29189,7 +28925,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.682849549286862</v>
+        <v>1.667958094884916</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.490349074172086</v>
@@ -29278,7 +29014,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.72074280033143</v>
+        <v>1.690370244098961</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.600075904580624</v>
@@ -29367,7 +29103,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.720952120825461</v>
+        <v>1.687426030413812</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.668902004922794</v>
@@ -29456,7 +29192,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.725194823165373</v>
+        <v>1.687420817332597</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.678792363093131</v>
@@ -29545,7 +29281,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.710036988450318</v>
+        <v>1.669134299873395</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.630464715996236</v>
@@ -29634,7 +29370,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.706241906638579</v>
+        <v>1.658935537983849</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.650349233949979</v>
@@ -29723,7 +29459,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.699303558834057</v>
+        <v>1.649415645147671</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.611653888809379</v>
@@ -29812,7 +29548,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.693363042739007</v>
+        <v>1.645148547701696</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.575540521409896</v>
@@ -29901,7 +29637,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.681551181114235</v>
+        <v>1.642774356468201</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.45276281311703</v>
@@ -29990,7 +29726,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.693011196131085</v>
+        <v>1.653070188279006</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.581624120199136</v>
@@ -30079,7 +29815,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.677901467012525</v>
+        <v>1.625918672333421</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.05454380992188</v>
@@ -30168,7 +29904,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.675248923664217</v>
+        <v>1.596288902996422</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.592610720662496</v>
@@ -30257,7 +29993,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.685172895336655</v>
+        <v>1.593379578541143</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.631188780891905</v>
@@ -30346,7 +30082,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.689743895317054</v>
+        <v>1.594270490757243</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.143248716459344</v>
@@ -30435,7 +30171,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677605966379786</v>
+        <v>1.572977470394021</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.081583416709128</v>
@@ -30524,7 +30260,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659480397481491</v>
+        <v>1.556759954066111</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.932379933850657</v>
@@ -30613,7 +30349,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645621119917845</v>
+        <v>1.553180735051343</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.276036420013555</v>
@@ -30702,7 +30438,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.644299948434695</v>
+        <v>1.557030285834685</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.482178640483042</v>
@@ -30791,7 +30527,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.637880819042368</v>
+        <v>1.557565733265489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.293256654106365</v>
@@ -30880,7 +30616,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653292287114082</v>
+        <v>1.575379730721991</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.244975504384141</v>
@@ -30969,7 +30705,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.673211292622139</v>
+        <v>1.618470999879471</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.306527129530678</v>
@@ -31058,7 +30794,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.662799052322781</v>
+        <v>1.614511970676429</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.27853715884132</v>
@@ -31147,7 +30883,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.656970195567602</v>
+        <v>1.612932381727792</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.197010751185132</v>
@@ -31236,7 +30972,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.663557661241731</v>
+        <v>1.623565772559719</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.274843768344974</v>
@@ -31325,7 +31061,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.653561709155006</v>
+        <v>1.609761661700438</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.35619427943524</v>
@@ -31414,7 +31150,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.64738351659051</v>
+        <v>1.600321277661775</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.182664804638386</v>
@@ -31503,7 +31239,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.638849396758301</v>
+        <v>1.59353575555003</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.087609082835018</v>
@@ -31592,7 +31328,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.638886698148859</v>
+        <v>1.593284872025884</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.376045407973218</v>
@@ -31681,7 +31417,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.639608767654653</v>
+        <v>1.593161144589808</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.17943631472229</v>
@@ -31770,7 +31506,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.645134056171975</v>
+        <v>1.603442650234804</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.343512616941821</v>
@@ -31859,7 +31595,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.654615082678594</v>
+        <v>1.622998920491123</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.155729810153636</v>
@@ -31948,7 +31684,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.661021260931332</v>
+        <v>1.633454020070751</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.278712895251461</v>
@@ -32037,7 +31773,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.65457042690731</v>
+        <v>1.62769522506117</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.090444827405949</v>
@@ -32126,7 +31862,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.659635236272154</v>
+        <v>1.62695473800586</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.283856386070907</v>
@@ -32215,7 +31951,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.653385217960564</v>
+        <v>1.621552488369715</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.115265835314632</v>
@@ -32304,7 +32040,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.640019616921649</v>
+        <v>1.597459714462159</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.849115802280448</v>
@@ -32393,7 +32129,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.65793331194965</v>
+        <v>1.609227111840425</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.029422414792524</v>
@@ -32482,7 +32218,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.67120182397321</v>
+        <v>1.616629423967595</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.959873453088615</v>
@@ -32571,7 +32307,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673258227308842</v>
+        <v>1.614205990130334</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.098245864639351</v>
@@ -32660,7 +32396,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.681735086239749</v>
+        <v>1.627287283780438</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.48897967905053</v>
@@ -32749,7 +32485,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.698123308862376</v>
+        <v>1.650836131910899</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.657433276788809</v>
@@ -32838,7 +32574,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.714751723412257</v>
+        <v>1.659705571400631</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.843384464244653</v>
@@ -32927,7 +32663,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.720131040434271</v>
+        <v>1.660905740149301</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.901036527989908</v>
@@ -33016,7 +32752,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.71640351359148</v>
+        <v>1.656288965529958</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.700538464959591</v>
@@ -33105,7 +32841,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.718006752209181</v>
+        <v>1.654948437502078</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.369026025696513</v>
@@ -33194,7 +32930,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.719424477747105</v>
+        <v>1.651834448569359</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.259834531433581</v>
@@ -33283,7 +33019,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.708354632395847</v>
+        <v>1.642540793884347</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.810583602666293</v>
@@ -33372,7 +33108,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.720726358278637</v>
+        <v>1.653021230069421</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.524508022547663</v>
@@ -33461,7 +33197,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.71997963675392</v>
+        <v>1.652902881410663</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.482179470575179</v>
@@ -33550,7 +33286,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.721309781569471</v>
+        <v>1.656447600784166</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.667389442785354</v>
@@ -33639,7 +33375,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.705795857938679</v>
+        <v>1.645276803363836</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.812062236521925</v>
@@ -33728,7 +33464,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.700919644129644</v>
+        <v>1.643009886273102</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.232498497344855</v>
@@ -33817,7 +33553,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.689858197641503</v>
+        <v>1.637323577509763</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.722200920139243</v>
@@ -33906,7 +33642,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.6896050520917</v>
+        <v>1.632258531910424</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.576214278471626</v>
@@ -33995,7 +33731,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.696626380678814</v>
+        <v>1.640143702032051</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.600283215603314</v>
@@ -34084,7 +33820,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.683593767682217</v>
+        <v>1.631369656611751</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.279824542454654</v>
@@ -34173,7 +33909,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.658522232750309</v>
+        <v>1.616174462840732</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.954876295021542</v>
@@ -34262,7 +33998,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.65031137394954</v>
+        <v>1.610351920718673</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.368335036554657</v>
@@ -34351,7 +34087,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.654625861938751</v>
+        <v>1.61235457233672</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.398380815329821</v>
@@ -34440,7 +34176,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.631256733249789</v>
+        <v>1.577907932896106</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.865882282061255</v>
@@ -34529,7 +34265,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.636257045106684</v>
+        <v>1.588002444292405</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.175714647211937</v>
@@ -34618,7 +34354,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.638731321593741</v>
+        <v>1.586190362064418</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.125741965303535</v>
@@ -34707,7 +34443,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.634919258713212</v>
+        <v>1.585735381392966</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.66603894637298</v>
@@ -34796,7 +34532,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.626602008729989</v>
+        <v>1.579051028170688</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.278148120958773</v>
@@ -34885,7 +34621,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.619646933879676</v>
+        <v>1.575560603065705</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.042919821378998</v>
@@ -34974,7 +34710,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.625024927383388</v>
+        <v>1.573739052812574</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.168550200618797</v>
@@ -35063,7 +34799,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.623978224868554</v>
+        <v>1.571272334396745</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.010214651438373</v>
@@ -35152,7 +34888,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.605761965587479</v>
+        <v>1.551771214768873</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.997708331567475</v>
@@ -35241,7 +34977,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.59597230994258</v>
+        <v>1.547120494450286</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.856502458475244</v>
@@ -35330,7 +35066,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.589064767161009</v>
+        <v>1.537614680170326</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.836959731571515</v>
@@ -35419,7 +35155,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.590634949952686</v>
+        <v>1.535556795007006</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.149609335606937</v>
@@ -35508,7 +35244,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.595796220191487</v>
+        <v>1.535558386246766</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.847642615670179</v>
@@ -35597,7 +35333,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.595971546422904</v>
+        <v>1.54252336859511</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.011704177726752</v>
@@ -35686,7 +35422,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.578598074152253</v>
+        <v>1.528001058777978</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.916045054096813</v>
@@ -35775,7 +35511,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.577717927303611</v>
+        <v>1.534281985876004</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.734097803040828</v>
@@ -35864,7 +35600,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.574236368416403</v>
+        <v>1.532673062631351</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.861332025523392</v>
@@ -35953,7 +35689,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.583763224494734</v>
+        <v>1.540078541166916</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.993208466413166</v>
@@ -36042,7 +35778,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.59095562225032</v>
+        <v>1.544438169205872</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.837209877721112</v>
@@ -36131,7 +35867,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.60451607525502</v>
+        <v>1.557701272142127</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.886119334285499</v>
@@ -36220,7 +35956,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.60942881931016</v>
+        <v>1.55937867531908</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.052321649796969</v>
@@ -36309,7 +36045,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.607332933149413</v>
+        <v>1.563535240479331</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.048961294443953</v>
@@ -36398,7 +36134,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.610156915987201</v>
+        <v>1.566395291607636</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.902615520977162</v>
@@ -36487,7 +36223,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.633572047343789</v>
+        <v>1.585201320296285</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.043311541288015</v>
@@ -36576,7 +36312,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.640774560742337</v>
+        <v>1.592484464340023</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.123917362934466</v>
@@ -36862,7 +36598,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.53057224320554</v>
+        <v>1.519678485800526</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.33817306191051</v>
@@ -36951,7 +36687,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.531253372350054</v>
+        <v>1.521492072065441</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.364547894204292</v>
@@ -37040,7 +36776,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.550055251215994</v>
+        <v>1.539564535413709</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.289483212738492</v>
@@ -37129,7 +36865,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.555335510923765</v>
+        <v>1.537917372164421</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.329017748105218</v>
@@ -37218,7 +36954,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.584321744005708</v>
+        <v>1.555473583871389</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.271466425141576</v>
@@ -37307,7 +37043,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.589367813142778</v>
+        <v>1.545663679056061</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.323535658778544</v>
@@ -37396,7 +37132,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605931847336181</v>
+        <v>1.552557175517331</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.290304528168043</v>
@@ -37485,7 +37221,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602351946694328</v>
+        <v>1.548227206521723</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.270346606733006</v>
@@ -37574,7 +37310,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.602282072994139</v>
+        <v>1.539353375266153</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.265674631234483</v>
@@ -37663,7 +37399,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.595950042297061</v>
+        <v>1.534880683841124</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.236554605877653</v>
@@ -37752,7 +37488,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595406436122134</v>
+        <v>1.533582911911412</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.270858081879723</v>
@@ -37841,7 +37577,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587775142776337</v>
+        <v>1.527745863821486</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.233510484055494</v>
@@ -37930,7 +37666,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600274608884463</v>
+        <v>1.528963695846714</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.151719052448824</v>
@@ -38019,7 +37755,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.608094822455875</v>
+        <v>1.524528088982751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.15456014237997</v>
@@ -38108,7 +37844,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.638188548274425</v>
+        <v>1.54159113300606</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.150169356386752</v>
@@ -38197,7 +37933,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.695726431682278</v>
+        <v>1.574412238164055</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.833166850293673</v>
@@ -38286,7 +38022,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.711752901385792</v>
+        <v>1.578986043395053</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.12539332539008</v>
@@ -38375,7 +38111,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.711457325647512</v>
+        <v>1.575603108109008</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.201858210310361</v>
@@ -38464,7 +38200,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.715137920602819</v>
+        <v>1.57795410117082</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.550493918225091</v>
@@ -38553,7 +38289,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.71363235423462</v>
+        <v>1.583765038154514</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.288407939217522</v>
@@ -38642,7 +38378,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.703631832991672</v>
+        <v>1.593246754450745</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.360139168986605</v>
@@ -38731,7 +38467,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.682595944905989</v>
+        <v>1.582086992871538</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.267295368678702</v>
@@ -38820,7 +38556,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690006709628617</v>
+        <v>1.591251398196164</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.4593994906028</v>
@@ -38909,7 +38645,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.693433256951194</v>
+        <v>1.611923195648347</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.611281481826109</v>
@@ -38998,7 +38734,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.691025271796487</v>
+        <v>1.613884142248914</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.769911935829395</v>
@@ -39087,7 +38823,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.68510237653026</v>
+        <v>1.614003979985983</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.561343997618024</v>
@@ -39176,7 +38912,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.68912235736095</v>
+        <v>1.620301046076548</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.781009544897859</v>
@@ -39265,7 +39001,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.679000630683721</v>
+        <v>1.612179645987217</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.562616879197452</v>
@@ -39354,7 +39090,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668038147065943</v>
+        <v>1.607090659694458</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.513695628120278</v>
@@ -39443,7 +39179,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.669556778276771</v>
+        <v>1.608945882619373</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.361218753507599</v>
@@ -39532,7 +39268,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673180973951648</v>
+        <v>1.610283663709531</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.599326215779803</v>
@@ -39621,7 +39357,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.673909592261492</v>
+        <v>1.613216679477873</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.696762028863017</v>
@@ -39710,7 +39446,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.671235435624897</v>
+        <v>1.612082524979179</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.407616445176043</v>
@@ -39799,7 +39535,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67773930586989</v>
+        <v>1.629109778156345</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.510576661588712</v>
@@ -39888,7 +39624,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.675515876491853</v>
+        <v>1.628306600496142</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.40049279000441</v>
@@ -39977,7 +39713,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.686935054519985</v>
+        <v>1.634583589216202</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.223056961341523</v>
@@ -40066,7 +39802,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.705944752148266</v>
+        <v>1.652235211193844</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.11912241063556</v>
@@ -40155,7 +39891,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.702039857000914</v>
+        <v>1.6426805535543</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.451056651438044</v>
@@ -40244,7 +39980,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.693960939537476</v>
+        <v>1.625776685732778</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.271304819319937</v>
@@ -40333,7 +40069,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.70695626098641</v>
+        <v>1.629663735316272</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.42357408927239</v>
@@ -40422,7 +40158,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.711684499348412</v>
+        <v>1.626703379676751</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.983593711188415</v>
@@ -40511,7 +40247,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.708182575649479</v>
+        <v>1.623817942927761</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.077816316045693</v>
@@ -40600,7 +40336,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.717478051463557</v>
+        <v>1.637618918455401</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.401304608057545</v>
@@ -40689,7 +40425,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.744619352275894</v>
+        <v>1.662139471255504</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.443724799535953</v>
@@ -40778,7 +40514,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.740492238381711</v>
+        <v>1.65592494644016</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.576972368148551</v>
@@ -40867,7 +40603,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.74143360779289</v>
+        <v>1.652387790470473</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.419094574844688</v>
@@ -40956,7 +40692,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.736253722712908</v>
+        <v>1.648954361415745</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.512893817660067</v>
@@ -41045,7 +40781,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.73995290679296</v>
+        <v>1.644367171590721</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.549984811852323</v>
@@ -41134,7 +40870,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734016454013784</v>
+        <v>1.636775355736605</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.838037009076588</v>
@@ -41223,7 +40959,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.713400037830037</v>
+        <v>1.625791311540773</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.462352790053808</v>
@@ -41312,7 +41048,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.708158051228239</v>
+        <v>1.631152112113075</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.619479614541206</v>
@@ -41401,7 +41137,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.710183501352707</v>
+        <v>1.63611760546432</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.392694476638128</v>
@@ -41490,7 +41226,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.706874132965108</v>
+        <v>1.639698564246676</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.875560566498926</v>
@@ -41579,7 +41315,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.711106253159443</v>
+        <v>1.650941210429962</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.481447010760262</v>
@@ -41668,7 +41404,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.710660752126482</v>
+        <v>1.656308912447305</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.592189784063394</v>
@@ -41757,7 +41493,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.692877660451442</v>
+        <v>1.647459769774645</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.378207851238024</v>
@@ -41846,7 +41582,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.682666439029378</v>
+        <v>1.626892743492216</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.1024844745569</v>
@@ -41935,7 +41671,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.685342554819255</v>
+        <v>1.62948632030334</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.004399218286835</v>
@@ -42024,7 +41760,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.665610410466633</v>
+        <v>1.612933485319366</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.061991746388993</v>
@@ -42113,7 +41849,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.659049362653234</v>
+        <v>1.607170079668781</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.149762847345976</v>
@@ -42202,7 +41938,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.651094805335908</v>
+        <v>1.600662507714254</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.147277312508645</v>
@@ -42291,7 +42027,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.654996174504634</v>
+        <v>1.595697011995714</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.14584637861591</v>
@@ -42380,7 +42116,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.641035201295214</v>
+        <v>1.580210773918715</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.113019565045222</v>
@@ -42469,7 +42205,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.646935645493103</v>
+        <v>1.591522362821661</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.723461749388748</v>
@@ -42558,7 +42294,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.64864344546106</v>
+        <v>1.587728882071045</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.893825847451457</v>
@@ -42647,7 +42383,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.639026725276353</v>
+        <v>1.575607245315976</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.046180228137216</v>
@@ -42736,7 +42472,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.625897541279837</v>
+        <v>1.556386291637467</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.937607890766238</v>
@@ -42825,7 +42561,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.621483624152101</v>
+        <v>1.55590679223411</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.111368486898863</v>
@@ -42914,7 +42650,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.615031641827435</v>
+        <v>1.544809579295786</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.125382662543525</v>
@@ -43003,7 +42739,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.613594994266841</v>
+        <v>1.545637336729466</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.261020535966103</v>
@@ -43092,7 +42828,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.610383750130795</v>
+        <v>1.542318687534721</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.078031996742031</v>
@@ -43181,7 +42917,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.622549940581985</v>
+        <v>1.549302322021026</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.066539270445427</v>
@@ -43270,7 +43006,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.615960506404005</v>
+        <v>1.544499074044735</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.304393488663392</v>
@@ -43359,7 +43095,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.612842734383946</v>
+        <v>1.536717464710712</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.377329099680341</v>
@@ -43448,7 +43184,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.617464250139704</v>
+        <v>1.539484260008756</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.300573305622669</v>
@@ -43537,7 +43273,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.615851076913414</v>
+        <v>1.539032680260456</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.099883659243532</v>
@@ -43626,7 +43362,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.587290789915356</v>
+        <v>1.52722564428555</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.860628337900088</v>
@@ -43715,7 +43451,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.578384657702063</v>
+        <v>1.520347338402336</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.018019078661726</v>
@@ -43804,7 +43540,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.573995460718004</v>
+        <v>1.511156967085807</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.165533079402679</v>
@@ -43893,7 +43629,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.585589234487347</v>
+        <v>1.514608365304436</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.03209209621583</v>
@@ -43982,7 +43718,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.587544477582953</v>
+        <v>1.517179214909246</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.915675312061027</v>
@@ -44071,7 +43807,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.592086287046271</v>
+        <v>1.524612565633262</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.112579921185982</v>
@@ -44160,7 +43896,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.598488230973524</v>
+        <v>1.528206605342209</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.251028575782627</v>
@@ -44249,7 +43985,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.60216532359339</v>
+        <v>1.535550762470843</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.119009967714146</v>
@@ -44338,7 +44074,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.592819394303872</v>
+        <v>1.527192298273918</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.867078246357317</v>
@@ -44427,7 +44163,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.591641977352627</v>
+        <v>1.525443860252354</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.303329621935803</v>
@@ -44516,7 +44252,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.592347862347751</v>
+        <v>1.533971592011689</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.211527404088125</v>
@@ -44802,7 +44538,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.554710172777347</v>
+        <v>1.572343413332878</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.482281549123609</v>
@@ -44891,7 +44627,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.539454096708069</v>
+        <v>1.564302068437308</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.433401750783263</v>
@@ -44980,7 +44716,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.53718605711556</v>
+        <v>1.564741111161323</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.462025798495995</v>
@@ -45069,7 +44805,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.52193432414289</v>
+        <v>1.543386237463167</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.374381296301131</v>
@@ -45158,7 +44894,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53785096173211</v>
+        <v>1.551243243951167</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.366221702803719</v>
@@ -45247,7 +44983,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.532579225689202</v>
+        <v>1.539755123189122</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.351253289806039</v>
@@ -45336,7 +45072,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.530274232803463</v>
+        <v>1.53678388999758</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.421849300051613</v>
@@ -45425,7 +45161,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.51937297506549</v>
+        <v>1.524860081223044</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.415648424707152</v>
@@ -45514,7 +45250,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.505733998304201</v>
+        <v>1.507709074920024</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.430415459595603</v>
@@ -45603,7 +45339,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.493962214780434</v>
+        <v>1.494111633288523</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.304384257544733</v>
@@ -45692,7 +45428,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.484906508594505</v>
+        <v>1.485989156324725</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.302644924290995</v>
@@ -45781,7 +45517,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.483944397739</v>
+        <v>1.48560800102046</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.44538826425648</v>
@@ -45870,7 +45606,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.495274632132352</v>
+        <v>1.496879744225111</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.327724601362644</v>
@@ -45959,7 +45695,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.48270416018659</v>
+        <v>1.4801021508274</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.369493181852739</v>
@@ -46048,7 +45784,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.501635201580252</v>
+        <v>1.493123279475777</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.417242874985638</v>
@@ -46137,7 +45873,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.532639437045186</v>
+        <v>1.509400331278779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.175681171370315</v>
@@ -46226,7 +45962,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547839284859417</v>
+        <v>1.522733839496609</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.499272817826025</v>
@@ -46315,7 +46051,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.555893824837354</v>
+        <v>1.525138134694154</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.658496204842165</v>
@@ -46404,7 +46140,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.564660378467217</v>
+        <v>1.535740933568167</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.73187881666406</v>
@@ -46493,7 +46229,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.565928980868885</v>
+        <v>1.539793080164152</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.888773432333182</v>
@@ -46582,7 +46318,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560203199276485</v>
+        <v>1.535961811518992</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.774336307302653</v>
@@ -46671,7 +46407,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564115708111098</v>
+        <v>1.541529835318054</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.927777917146809</v>
@@ -46760,7 +46496,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.582046259787511</v>
+        <v>1.551014691894612</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.683057246757981</v>
@@ -46849,7 +46585,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583164742456219</v>
+        <v>1.564735317506044</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.826112308156528</v>
@@ -46938,7 +46674,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.564342197941068</v>
+        <v>1.549372158996231</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.423235459663486</v>
@@ -47027,7 +46763,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.558998538210833</v>
+        <v>1.545808077395607</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.393111973774009</v>
@@ -47116,7 +46852,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557438204205923</v>
+        <v>1.543332738259957</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.33975745053785</v>
@@ -47205,7 +46941,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572408575908439</v>
+        <v>1.54494044201016</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.353606828643296</v>
@@ -47294,7 +47030,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.578431984273295</v>
+        <v>1.545641422029809</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.477112125732575</v>
@@ -47383,7 +47119,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584847097390874</v>
+        <v>1.548061597452909</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.388386636674919</v>
@@ -47472,7 +47208,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.581927768476612</v>
+        <v>1.545700525819237</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.508070758522089</v>
@@ -47561,7 +47297,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.585392755825838</v>
+        <v>1.554200726987947</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.467924920558091</v>
@@ -47650,7 +47386,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602785505102122</v>
+        <v>1.574018912530631</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.503310984178627</v>
@@ -47739,7 +47475,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.609924116727774</v>
+        <v>1.582486830781703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.57872832335498</v>
@@ -47828,7 +47564,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618036663052637</v>
+        <v>1.590447668728237</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.487271875737186</v>
@@ -47917,7 +47653,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628979229325755</v>
+        <v>1.601784783780557</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.669855404937505</v>
@@ -48006,7 +47742,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.639919351181509</v>
+        <v>1.608667374958786</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.517096900652942</v>
@@ -48095,7 +47831,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.6425193498344</v>
+        <v>1.617071098961395</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.705186377980975</v>
@@ -48184,7 +47920,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642368848108944</v>
+        <v>1.610479069787197</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.317120254456472</v>
@@ -48273,7 +48009,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.660919703673942</v>
+        <v>1.625975490926588</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.422005122352754</v>
@@ -48362,7 +48098,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.675056758760568</v>
+        <v>1.641208595956707</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.345309107298701</v>
@@ -48451,7 +48187,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.683405104588888</v>
+        <v>1.648744316428441</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.048658418189786</v>
@@ -48540,7 +48276,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.687110146887218</v>
+        <v>1.66432519417213</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.013151753673476</v>
@@ -48629,7 +48365,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.699782496881432</v>
+        <v>1.681384437146126</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.107689710698407</v>
@@ -48718,7 +48454,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.700939061038432</v>
+        <v>1.682276404497672</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.455492138398447</v>
@@ -48807,7 +48543,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.711139120865612</v>
+        <v>1.690518950823508</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.603513219176366</v>
@@ -48896,7 +48632,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.711043325991241</v>
+        <v>1.690316591637608</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.454782711900294</v>
@@ -48985,7 +48721,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.706431916856201</v>
+        <v>1.680362263433517</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.378667042496994</v>
@@ -49074,7 +48810,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.692413848453792</v>
+        <v>1.670615981453593</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.728879588353357</v>
@@ -49163,7 +48899,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.68637498810145</v>
+        <v>1.670477546512606</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.368268775319275</v>
@@ -49252,7 +48988,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.674343617091379</v>
+        <v>1.663327001694526</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.159950676969518</v>
@@ -49341,7 +49077,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.676938752288248</v>
+        <v>1.662231187108841</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.444729773461439</v>
@@ -49430,7 +49166,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.66680582656167</v>
+        <v>1.658139712955545</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.617233176971512</v>
@@ -49519,7 +49255,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.666639068033884</v>
+        <v>1.654929232879426</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.354621593628153</v>
@@ -49608,7 +49344,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.676461388609229</v>
+        <v>1.664583996056376</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.255077345246991</v>
@@ -49697,7 +49433,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.643840520577659</v>
+        <v>1.638380805653823</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.781742901757374</v>
@@ -49786,7 +49522,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.635342706800886</v>
+        <v>1.623686526844047</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.899300097352447</v>
@@ -49875,7 +49611,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.631133970804773</v>
+        <v>1.616942941831633</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.725644724881328</v>
@@ -49964,7 +49700,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.599505880687718</v>
+        <v>1.586503566075831</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.627788966137</v>
@@ -50053,7 +49789,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.581957679249069</v>
+        <v>1.569447530382852</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.584370099488596</v>
@@ -50142,7 +49878,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.574656024897817</v>
+        <v>1.559888082886709</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.86702969472902</v>
@@ -50231,7 +49967,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.565866505428924</v>
+        <v>1.550659467327354</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.579732198610588</v>
@@ -50320,7 +50056,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.528402645455668</v>
+        <v>1.505263328858855</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.485572087963378</v>
@@ -50409,7 +50145,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.523739953889355</v>
+        <v>1.510736340012498</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.760210917159223</v>
@@ -50498,7 +50234,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.521658616076442</v>
+        <v>1.504393804108185</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.526513546847225</v>
@@ -50587,7 +50323,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.527687775774166</v>
+        <v>1.509504064663735</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.320203265042502</v>
@@ -50676,7 +50412,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.511604144625191</v>
+        <v>1.495688730042623</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.445369235636242</v>
@@ -50765,7 +50501,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.499203099029631</v>
+        <v>1.478871140247364</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.547282247182815</v>
@@ -50854,7 +50590,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.496472631942524</v>
+        <v>1.474243825115456</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.596407156780719</v>
@@ -50943,7 +50679,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.486320592730969</v>
+        <v>1.465160097538365</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.485215205958987</v>
@@ -51032,7 +50768,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.480444485865194</v>
+        <v>1.455620776615246</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.513501290035502</v>
@@ -51121,7 +50857,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.48861624147838</v>
+        <v>1.458392815196805</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.309886454652232</v>
@@ -51210,7 +50946,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.477981229369504</v>
+        <v>1.451693034550959</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.662883961922611</v>
@@ -51299,7 +51035,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.499290382185942</v>
+        <v>1.473214021888354</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.508060251741176</v>
@@ -51388,7 +51124,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.512876363154215</v>
+        <v>1.486929920116068</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.433343934466625</v>
@@ -51477,7 +51213,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.510276599546585</v>
+        <v>1.485333377979514</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.564480217802456</v>
@@ -51566,7 +51302,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.503952470266016</v>
+        <v>1.479619350946678</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.626530730937998</v>
@@ -51655,7 +51391,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.516128902793575</v>
+        <v>1.494613064628921</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.486757225261633</v>
@@ -51744,7 +51480,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.522731168163338</v>
+        <v>1.500827398310368</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.822576992279576</v>
@@ -51833,7 +51569,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.52913086614469</v>
+        <v>1.502697546166478</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.781203527890182</v>
@@ -51922,7 +51658,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.537499653607153</v>
+        <v>1.50556667386884</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.641076217143695</v>
@@ -52011,7 +51747,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.546929458833456</v>
+        <v>1.517908398534161</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.919434519347001</v>
@@ -52100,7 +51836,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.555337282590608</v>
+        <v>1.525158153976109</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.821869581997623</v>
@@ -52189,7 +51925,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.543524982948937</v>
+        <v>1.515832625725514</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.862675928386735</v>
@@ -52278,7 +52014,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.524707928915807</v>
+        <v>1.494556230175407</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.811800642561958</v>
@@ -52367,7 +52103,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.531702326691998</v>
+        <v>1.507383631194193</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.680321864738783</v>
@@ -52456,7 +52192,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.522609340334256</v>
+        <v>1.506611500351167</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.762271281935933</v>
